--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -89,7 +89,22 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 9:41 AM</t>
+    <t xml:space="preserve">مناديل جيب مبلله </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 17 August, 2025 9:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -817,38 +832,71 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>181.13999999999999</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>28</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>29</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>25</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>26</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>27</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>28</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>187.13999999999999</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>32</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>33</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +920,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -89,22 +89,31 @@
     <t>1:0</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 9:44 AM</t>
+    <t>Sunday, 17 August, 2025 9:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -844,59 +853,92 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>187.13999999999999</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>31</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>27</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>32</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>33</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c t="s" r="Q11" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>212.13999999999999</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>36</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -925,10 +967,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>210.00</t>
   </si>
   <si>
     <t>69.3000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -74,6 +86,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -101,6 +122,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
@@ -113,7 +146,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 9:45 AM</t>
+    <t>Sunday, 17 August, 2025 9:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -837,7 +870,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -846,31 +879,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -879,66 +912,165 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c t="s" r="Q11" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>212.13999999999999</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>29</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
         <v>34</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>18</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>34</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>42</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>34</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>43</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>243.97999999999999</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>45</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>46</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>47</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1104,25 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>69.3000</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -86,6 +98,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
     <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -107,9 +131,6 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -146,7 +167,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 9:47 AM</t>
+    <t>Sunday, 17 August, 2025 9:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -870,7 +891,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -886,7 +907,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -896,11 +917,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -912,14 +933,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -929,14 +950,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -952,24 +973,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -978,20 +999,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1002,7 +1023,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1011,66 +1032,132 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>44</v>
       </c>
-      <c t="s" r="Q14" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>243.97999999999999</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>18</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>41</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>45</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c t="s" r="Q15" s="12">
         <v>47</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>49</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>41</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>463.48000000000002</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>53</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>54</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1119,10 +1206,20 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -62,6 +62,27 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
@@ -167,7 +188,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 9:49 AM</t>
+    <t>Sunday, 17 August, 2025 10:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -874,7 +895,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -884,14 +905,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -900,14 +921,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -917,11 +938,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -933,14 +954,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -950,14 +971,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -966,14 +987,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1023,7 +1044,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1039,24 +1060,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1065,20 +1086,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1089,7 +1110,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1098,66 +1119,132 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>51</v>
       </c>
-      <c t="s" r="Q16" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>463.48000000000002</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>25</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>48</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>52</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c t="s" r="Q17" s="12">
         <v>54</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>56</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>48</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>57</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>514.29999999999995</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>59</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>60</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>61</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1216,10 +1303,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>15.3600</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -164,16 +176,28 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>2:7</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>11.5000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
@@ -185,10 +209,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>Sunday, 17 August, 2025 10:00 AM</t>
+    <t>Sunday, 17 August, 2025 10:02 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1110,7 +1131,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1126,13 +1147,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1159,24 +1180,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1198,7 +1219,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1209,42 +1230,108 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>25</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>52</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>60</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>63</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>52</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>65</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>514.29999999999995</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>59</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
-        <v>60</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
-        <v>61</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>540.66999999999996</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>66</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>67</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>68</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1313,10 +1400,20 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>مبرد اظافر</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
@@ -209,7 +218,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 10:02 AM</t>
+    <t>Sunday, 17 August, 2025 10:03 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1279,7 +1288,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1289,49 +1298,82 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>540.66999999999996</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>66</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>67</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>52</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>68</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>555.66999999999996</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>69</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>70</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>71</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1410,10 +1452,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -98,9 +113,6 @@
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>188.00</t>
   </si>
   <si>
@@ -143,9 +155,6 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -218,7 +227,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 10:03 AM</t>
+    <t>Sunday, 17 August, 2025 10:12 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -909,7 +918,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -918,14 +927,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -935,11 +944,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -951,14 +960,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -968,11 +977,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -984,14 +993,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1001,14 +1010,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1017,14 +1026,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1041,7 +1050,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1074,7 +1083,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1090,7 +1099,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1100,14 +1109,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1116,14 +1125,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1156,7 +1165,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1166,14 +1175,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1182,31 +1191,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1215,31 +1224,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1248,20 +1257,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1272,7 +1281,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1281,31 +1290,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1321,59 +1330,92 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>555.66999999999996</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>69</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
         <v>70</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>55</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>71</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>638.66999999999996</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>72</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>73</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>74</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1457,10 +1499,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACHTENON 2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>1:5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -119,6 +131,15 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -152,6 +173,27 @@
     <t>15.3600</t>
   </si>
   <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>52.4700</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -227,7 +269,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 10:12 AM</t>
+    <t>Sunday, 17 August, 2025 10:21 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -918,7 +960,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -927,14 +969,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -944,14 +986,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -967,7 +1009,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -977,11 +1019,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -993,14 +1035,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1033,7 +1075,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1043,14 +1085,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1059,14 +1101,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1083,7 +1125,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1099,7 +1141,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1109,14 +1151,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1125,14 +1167,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1165,7 +1207,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1175,14 +1217,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1191,14 +1233,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1215,7 +1257,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1231,24 +1273,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1257,28 +1299,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1290,31 +1332,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1323,31 +1365,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1356,66 +1398,231 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>68</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>65</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>69</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>70</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>73</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>69</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>74</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>34</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>69</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>77</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>25</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>69</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>81</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>638.66999999999996</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>72</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>73</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>74</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>84</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>69</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>85</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>867.59000000000003</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>86</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>87</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>88</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1504,10 +1711,35 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
@@ -164,6 +173,15 @@
     <t>31.5000</t>
   </si>
   <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -203,6 +221,33 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TEBOFORTIN FORTE 80MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>54.4500</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -269,7 +314,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 10:21 AM</t>
+    <t>Sunday, 17 August, 2025 10:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1075,7 +1120,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1085,11 +1130,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1101,14 +1146,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1125,7 +1170,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1158,7 +1203,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1174,7 +1219,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1184,11 +1229,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1200,14 +1245,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1217,14 +1262,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1233,14 +1278,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1257,7 +1302,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1273,7 +1318,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1283,7 +1328,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1306,7 +1351,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1339,7 +1384,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1349,11 +1394,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1365,14 +1410,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1382,11 +1427,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1398,14 +1443,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1415,14 +1460,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1431,31 +1476,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1464,28 +1509,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1497,31 +1542,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1530,31 +1575,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1563,66 +1608,231 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>867.59000000000003</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>83</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>80</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>84</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>85</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c t="s" r="Q28" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>87</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
         <v>88</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>84</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>89</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>91</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>37</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>84</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>92</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>25</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>84</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>96</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>98</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>99</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>84</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>100</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1028.1500000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>101</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>102</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>103</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1736,10 +1946,35 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -272,6 +272,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">بيبرونه ALGO صغيره </t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن</t>
   </si>
   <si>
@@ -293,18 +299,30 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>3:0</t>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
   </si>
   <si>
     <t>مبرد اظافر</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
@@ -314,7 +332,19 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 10:30 AM</t>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 17 August, 2025 10:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1691,14 +1721,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1707,14 +1737,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1724,14 +1754,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1740,14 +1770,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1757,14 +1787,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1773,14 +1803,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1790,49 +1820,181 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1028.1500000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>99</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>100</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>84</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>101</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c t="s" r="Q33" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>103</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>25</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>84</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>97</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>104</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>105</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>84</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>106</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>107</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>108</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>84</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>109</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1153.1500000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>111</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>112</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>113</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1971,10 +2133,30 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -176,9 +188,6 @@
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -323,6 +332,15 @@
     <t>مبرد اظافر</t>
   </si>
   <si>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
@@ -344,7 +362,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 10:35 AM</t>
+    <t>Sunday, 17 August, 2025 11:12 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1068,7 +1086,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1077,14 +1095,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1094,14 +1112,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1117,7 +1135,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1127,11 +1145,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1143,14 +1161,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1160,11 +1178,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1176,14 +1194,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1216,7 +1234,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1226,14 +1244,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1242,14 +1260,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1259,14 +1277,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1275,14 +1293,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1332,7 +1350,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1358,14 +1376,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1374,14 +1392,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1391,7 +1409,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1414,7 +1432,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1447,7 +1465,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1480,7 +1498,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1490,11 +1508,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1523,11 +1541,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1546,7 +1564,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1579,7 +1597,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1612,7 +1630,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1645,7 +1663,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1655,14 +1673,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1671,31 +1689,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1704,31 +1722,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1737,31 +1755,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1770,20 +1788,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1794,7 +1812,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1810,13 +1828,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1827,7 +1845,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1843,24 +1861,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1869,31 +1887,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1902,31 +1920,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1942,59 +1960,125 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>110</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1153.1500000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
         <v>111</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>87</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>112</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>113</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>114</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>87</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>115</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1266.1500000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>117</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>118</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>119</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2153,10 +2237,20 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 11:12 AM</t>
+    <t>Sunday, 17 August, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -125,10 +125,13 @@
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>69.00</t>
   </si>
   <si>
-    <t>22.7700</t>
+    <t>91.7700</t>
   </si>
   <si>
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
@@ -185,6 +188,15 @@
     <t>31.5000</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
@@ -200,6 +212,18 @@
     <t>15.3600</t>
   </si>
   <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>RAMIXOLE 1 MG 30 TAB.</t>
   </si>
   <si>
@@ -209,6 +233,27 @@
     <t>52.4700</t>
   </si>
   <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
@@ -356,13 +401,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>Sunday, 17 August, 2025 11:16 AM</t>
+    <t>Sunday, 17 August, 2025 11:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1240,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1211,14 +1250,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1227,14 +1266,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1244,11 +1283,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1260,7 +1299,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1277,11 +1316,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>29</v>
@@ -1293,7 +1332,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1310,11 +1349,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1326,14 +1365,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1343,11 +1382,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1359,14 +1398,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1376,11 +1415,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>29</v>
@@ -1392,14 +1431,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1409,14 +1448,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1425,14 +1464,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1442,11 +1481,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1458,14 +1497,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1475,11 +1514,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1491,14 +1530,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1508,14 +1547,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1524,14 +1563,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1541,11 +1580,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1557,14 +1596,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1574,14 +1613,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1590,14 +1629,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1607,11 +1646,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1623,14 +1662,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1640,11 +1679,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1656,7 +1695,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1673,11 +1712,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1689,14 +1728,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1706,14 +1745,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1722,31 +1761,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1755,31 +1794,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1788,28 +1827,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1821,31 +1860,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1854,28 +1893,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -1887,31 +1926,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1920,31 +1959,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1953,31 +1992,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1986,28 +2025,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2019,66 +2058,198 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>121</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>29</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>102</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>115</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>116</v>
       </c>
-      <c t="s" r="Q38" s="12">
+      <c t="s" r="Q39" s="12">
         <v>29</v>
       </c>
     </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1266.1500000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>117</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>118</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
-        <v>119</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>122</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>26</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>102</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>123</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>125</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>126</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>102</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>127</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>128</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>129</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>102</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>69</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1559.2000000000001</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>130</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>131</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>132</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2247,10 +2418,30 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -197,6 +197,24 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>LAMICTAL 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>143.0000</t>
+  </si>
+  <si>
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
@@ -212,6 +230,15 @@
     <t>15.3600</t>
   </si>
   <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>PURGATON 20MG 30 TAB.</t>
   </si>
   <si>
@@ -293,6 +320,24 @@
     <t>54.4500</t>
   </si>
   <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -401,7 +446,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 11:44 AM</t>
+    <t>Sunday, 17 August, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1471,7 +1516,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1481,14 +1526,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1497,14 +1542,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1514,14 +1559,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1530,14 +1575,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1547,14 +1592,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1563,14 +1608,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1580,11 +1625,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1596,7 +1641,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1613,11 +1658,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>29</v>
@@ -1629,14 +1674,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1646,14 +1691,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1662,7 +1707,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1679,11 +1724,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1695,14 +1740,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1712,14 +1757,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1728,14 +1773,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1745,11 +1790,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1761,14 +1806,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1778,11 +1823,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1794,14 +1839,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1811,11 +1856,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1834,7 +1879,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1867,7 +1912,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1877,14 +1922,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1893,31 +1938,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1926,28 +1971,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -1959,31 +2004,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1992,31 +2037,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2025,28 +2070,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2058,31 +2103,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2091,28 +2136,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>29</v>
@@ -2131,24 +2176,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2157,20 +2202,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2178,10 +2223,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2190,66 +2235,231 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1559.2000000000001</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>132</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>133</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>117</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>134</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>136</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>29</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>117</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>130</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>131</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>132</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>137</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>26</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>117</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>138</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>140</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>141</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>117</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>142</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>143</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>144</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>117</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>78</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2208.1999999999998</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>145</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>146</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>147</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2438,10 +2648,35 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -407,6 +407,9 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -446,7 +449,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 11:46 AM</t>
+    <t>Sunday, 17 August, 2025 11:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2275,7 +2278,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2285,14 +2288,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2301,14 +2304,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2318,14 +2321,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2341,7 +2344,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2351,11 +2354,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2367,14 +2370,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2384,11 +2387,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2400,14 +2403,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2417,49 +2420,82 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>144</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>145</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>117</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>78</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>79</v>
       </c>
-      <c t="s" r="Q47" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2208.1999999999998</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>145</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c t="s" r="Q48" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2233.1999999999998</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
         <v>146</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
         <v>147</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>148</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2673,10 +2709,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 11:48 AM</t>
+    <t>Sunday, 17 August, 2025 11:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -377,6 +377,9 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>جل صبار برطمان</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن</t>
   </si>
   <si>
@@ -423,6 +426,12 @@
   </si>
   <si>
     <t>مبرد اظافر</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>20.0000</t>
   </si>
   <si>
     <t>معجون سنسوداين صغير</t>
@@ -2179,7 +2188,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2255,14 +2264,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2271,14 +2280,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2288,11 +2297,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
@@ -2311,7 +2320,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2321,14 +2330,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2337,14 +2346,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2354,14 +2363,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2377,7 +2386,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2387,11 +2396,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2420,11 +2429,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2453,49 +2462,115 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>144</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>145</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>117</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>146</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>147</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>148</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>117</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>78</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>79</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2233.1999999999998</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>146</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>147</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>148</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2278.1999999999998</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>149</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>150</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>151</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2714,10 +2789,20 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -458,7 +458,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 11:50 AM</t>
+    <t>Sunday, 17 August, 2025 11:53 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -458,7 +458,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 11:53 AM</t>
+    <t>Sunday, 17 August, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BRINGO TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -188,6 +200,18 @@
     <t>31.5000</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -215,6 +239,24 @@
     <t>143.0000</t>
   </si>
   <si>
+    <t>LIT UP SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
@@ -350,9 +392,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -374,9 +413,6 @@
     <t xml:space="preserve">بيبرونه ALGO صغيره </t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>جل صبار برطمان</t>
   </si>
   <si>
@@ -458,7 +494,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 12:03 PM</t>
+    <t>Sunday, 17 August, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1248,7 +1284,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1264,7 +1300,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1274,11 +1310,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1290,14 +1326,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1314,7 +1350,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1347,7 +1383,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1363,7 +1399,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1373,14 +1409,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1389,7 +1425,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1406,14 +1442,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1422,14 +1458,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1479,7 +1515,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1495,7 +1531,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1505,11 +1541,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>29</v>
@@ -1521,14 +1557,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1538,11 +1574,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
@@ -1554,14 +1590,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1571,11 +1607,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>29</v>
@@ -1587,14 +1623,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1604,14 +1640,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1620,14 +1656,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1637,14 +1673,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1653,14 +1689,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1670,11 +1706,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>29</v>
@@ -1686,14 +1722,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1703,14 +1739,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1719,14 +1755,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1736,11 +1772,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1752,14 +1788,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1769,14 +1805,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1785,14 +1821,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1809,7 +1845,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1825,7 +1861,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1835,14 +1871,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1851,14 +1887,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1868,11 +1904,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1884,14 +1920,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1901,14 +1937,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1917,14 +1953,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1934,11 +1970,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1950,14 +1986,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1967,11 +2003,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1983,14 +2019,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2000,14 +2036,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2016,14 +2052,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2033,14 +2069,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2049,14 +2085,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2066,11 +2102,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2082,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2099,14 +2135,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2115,20 +2151,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2155,21 +2191,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>29</v>
@@ -2181,31 +2217,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2214,31 +2250,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2247,31 +2283,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2280,20 +2316,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2313,28 +2349,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2346,31 +2382,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2379,31 +2415,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2412,28 +2448,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2445,7 +2481,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2458,15 +2494,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2478,31 +2514,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2511,66 +2547,198 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2278.1999999999998</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>149</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>150</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>151</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>46</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>130</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>148</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>153</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>26</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>130</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>154</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>156</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>157</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>130</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>158</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>159</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>160</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>130</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>92</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2466.2600000000002</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>161</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>162</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>163</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2799,10 +2967,30 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -179,13 +179,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:3</t>
+    <t>8:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
@@ -230,6 +230,18 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
     <t>LAMICTAL 50MG 30 TAB.</t>
   </si>
   <si>
@@ -281,6 +293,15 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>PRONTO PLUS 20 TAB.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>PURGATON 20MG 30 TAB.</t>
   </si>
   <si>
@@ -344,6 +365,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -395,9 +425,6 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -434,67 +461,67 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>مبرد اظافر</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مناديل جيب مبلله </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>شامبو جونسون 100 مل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>مبرد اظافر</t>
-  </si>
-  <si>
-    <t>مبرد قدم</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>معجون سنسوداين صغير</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مناديل جيب مبلله </t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 12:04 PM</t>
+    <t>Sunday, 17 August, 2025 12:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1515,7 +1542,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1680,7 +1707,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1689,7 +1716,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1706,11 +1733,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>29</v>
@@ -1722,14 +1749,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1739,14 +1766,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1755,14 +1782,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1772,11 +1799,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1788,14 +1815,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1805,11 +1832,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1821,14 +1848,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,14 +1865,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1854,14 +1881,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1894,7 +1921,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1911,7 +1938,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1927,7 +1954,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1937,11 +1964,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>29</v>
@@ -1953,14 +1980,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1993,7 +2020,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2010,7 +2037,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2026,7 +2053,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2036,11 +2063,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2052,14 +2079,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2069,11 +2096,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2085,14 +2112,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2118,14 +2145,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2135,11 +2162,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2151,14 +2178,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2168,11 +2195,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>29</v>
@@ -2184,14 +2211,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2201,14 +2228,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2217,14 +2244,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2234,11 +2261,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2250,14 +2277,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2267,11 +2294,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>29</v>
@@ -2283,20 +2310,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2323,24 +2350,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2349,28 +2376,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2382,31 +2409,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2415,20 +2442,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2439,7 +2466,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2448,28 +2475,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2481,31 +2508,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2514,31 +2541,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2547,7 +2574,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2560,15 +2587,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
@@ -2580,28 +2607,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>29</v>
@@ -2613,31 +2640,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2646,28 +2673,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>29</v>
@@ -2686,59 +2713,158 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2466.2600000000002</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>161</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>26</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>139</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>162</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>163</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>164</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>165</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>139</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>166</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>168</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>169</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>139</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>99</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2684.0999999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>170</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>171</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>172</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2987,10 +3113,25 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -521,7 +521,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 12:05 PM</t>
+    <t>Sunday, 17 August, 2025 12:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -521,7 +521,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 12:17 PM</t>
+    <t>Sunday, 17 August, 2025 12:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -293,6 +302,15 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PRONTO PLUS 20 TAB.</t>
   </si>
   <si>
@@ -521,7 +539,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 12:18 PM</t>
+    <t>Sunday, 17 August, 2025 12:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1261,7 +1279,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1271,14 +1289,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1287,14 +1305,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1304,14 +1322,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1320,14 +1338,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1337,14 +1355,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1353,14 +1371,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1393,7 +1411,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1403,14 +1421,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1419,14 +1437,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1436,14 +1454,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1452,14 +1470,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1476,7 +1494,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1492,7 +1510,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1509,7 +1527,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1525,7 +1543,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1535,14 +1553,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1551,14 +1569,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1568,14 +1586,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1584,14 +1602,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1601,14 +1619,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1617,14 +1635,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1641,7 +1659,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1657,7 +1675,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1674,7 +1692,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1690,7 +1708,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1707,7 +1725,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1716,14 +1734,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1733,14 +1751,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>79</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1756,7 +1774,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1773,7 +1791,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1789,7 +1807,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1806,7 +1824,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1822,7 +1840,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1832,11 +1850,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1848,14 +1866,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1865,7 +1883,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1888,7 +1906,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1905,7 +1923,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1921,7 +1939,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1938,7 +1956,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1954,7 +1972,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1964,14 +1982,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1980,14 +1998,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1997,14 +2015,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2013,14 +2031,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2037,7 +2055,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2053,7 +2071,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2063,11 +2081,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2079,14 +2097,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2096,14 +2114,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2112,14 +2130,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2129,11 +2147,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2145,14 +2163,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2162,11 +2180,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2178,14 +2196,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2195,14 +2213,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2218,7 +2236,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2251,7 +2269,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2268,7 +2286,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2284,7 +2302,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2301,7 +2319,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2317,7 +2335,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2334,7 +2352,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2350,7 +2368,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2367,7 +2385,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2383,7 +2401,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2397,10 +2415,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2409,20 +2427,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2433,7 +2451,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2449,24 +2467,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2475,31 +2493,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2508,20 +2526,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2532,7 +2550,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2541,31 +2559,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2574,20 +2592,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2598,7 +2616,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2614,24 +2632,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2640,31 +2658,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2673,7 +2691,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2686,18 +2704,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2706,28 +2724,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>29</v>
@@ -2739,31 +2757,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2772,31 +2790,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2805,66 +2823,132 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2684.0999999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>170</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
         <v>171</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>145</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>172</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>174</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>175</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>145</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>105</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2733.8299999999999</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>176</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>177</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>178</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3128,10 +3212,20 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -539,7 +539,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 12:19 PM</t>
+    <t>Sunday, 17 August, 2025 12:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -221,6 +221,9 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -539,7 +542,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 12:24 PM</t>
+    <t>Sunday, 17 August, 2025 12:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1675,7 +1678,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1685,11 +1688,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>32</v>
@@ -1701,14 +1704,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1718,11 +1721,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>32</v>
@@ -1734,14 +1737,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1751,14 +1754,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1767,7 +1770,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1784,14 +1787,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1800,7 +1803,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1817,11 +1820,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>32</v>
@@ -1833,14 +1836,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1850,14 +1853,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1866,14 +1869,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1883,11 +1886,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1899,14 +1902,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1916,11 +1919,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1932,14 +1935,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1949,14 +1952,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1965,14 +1968,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1982,14 +1985,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1998,14 +2001,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2015,14 +2018,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2031,14 +2034,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2048,11 +2051,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>32</v>
@@ -2064,14 +2067,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2081,14 +2084,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2097,14 +2100,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2114,14 +2117,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2130,14 +2133,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2147,14 +2150,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2163,14 +2166,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2180,11 +2183,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2196,14 +2199,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2213,11 +2216,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2236,7 +2239,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2246,11 +2249,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2262,14 +2265,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2279,14 +2282,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2295,14 +2298,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2312,14 +2315,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2328,14 +2331,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2345,11 +2348,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2361,14 +2364,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2378,14 +2381,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2394,14 +2397,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2411,11 +2414,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>32</v>
@@ -2427,7 +2430,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2444,14 +2447,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2460,14 +2463,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2477,14 +2480,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2493,7 +2496,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2506,15 +2509,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>32</v>
@@ -2526,28 +2529,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>32</v>
@@ -2572,15 +2575,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>32</v>
@@ -2599,24 +2602,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2625,31 +2628,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2658,31 +2661,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2691,28 +2694,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>32</v>
@@ -2731,24 +2734,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2757,31 +2760,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2797,21 +2800,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>32</v>
@@ -2823,28 +2826,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>32</v>
@@ -2856,28 +2859,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>32</v>
@@ -2889,66 +2892,99 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>175</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>176</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>146</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>106</v>
       </c>
-      <c t="s" r="Q59" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2733.8299999999999</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>176</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2811.8299999999999</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
         <v>177</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
         <v>178</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>179</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3222,10 +3258,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -311,7 +320,7 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
   </si>
   <si>
     <t>PRONTO PLUS 20 TAB.</t>
@@ -392,9 +401,6 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -434,12 +440,21 @@
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -464,6 +479,18 @@
     <t>جل صبار برطمان</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>40:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن</t>
   </si>
   <si>
@@ -485,6 +512,15 @@
     <t>13:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سهايه الجو</t>
   </si>
   <si>
@@ -503,7 +539,7 @@
     <t>25:0</t>
   </si>
   <si>
-    <t>20.00</t>
+    <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>مبرد اظافر</t>
@@ -512,9 +548,6 @@
     <t>مبرد قدم</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
@@ -542,7 +575,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 12:28 PM</t>
+    <t>Sunday, 17 August, 2025 12:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1579,7 +1612,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1589,14 +1622,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1605,14 +1638,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1622,14 +1655,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1638,14 +1671,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1655,11 +1688,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>32</v>
@@ -1671,14 +1704,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1688,11 +1721,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>32</v>
@@ -1704,14 +1737,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1721,11 +1754,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>32</v>
@@ -1744,7 +1777,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1777,7 +1810,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1794,7 +1827,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1803,7 +1836,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1820,14 +1853,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1876,7 +1909,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1893,7 +1926,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1909,7 +1942,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1919,11 +1952,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1935,14 +1968,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1952,7 +1985,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1975,7 +2008,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1992,7 +2025,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2008,7 +2041,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2025,7 +2058,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2041,7 +2074,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2058,7 +2091,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2074,7 +2107,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2084,11 +2117,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2100,14 +2133,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2124,7 +2157,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2140,7 +2173,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2157,7 +2190,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2173,7 +2206,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2183,14 +2216,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2199,14 +2232,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2239,7 +2272,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2249,11 +2282,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2265,14 +2298,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2282,11 +2315,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2305,7 +2338,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2322,7 +2355,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2338,7 +2371,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2352,10 +2385,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2364,14 +2397,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2381,11 +2414,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2397,14 +2430,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2414,14 +2447,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2430,14 +2463,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2447,11 +2480,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>32</v>
@@ -2463,7 +2496,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2480,14 +2513,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2496,14 +2529,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2513,14 +2546,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2529,31 +2562,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2562,28 +2595,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>32</v>
@@ -2602,21 +2635,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>32</v>
@@ -2628,31 +2661,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2668,24 +2701,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2694,28 +2727,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>32</v>
@@ -2727,31 +2760,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2760,31 +2793,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2793,28 +2826,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>32</v>
@@ -2826,28 +2859,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>32</v>
@@ -2859,7 +2892,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2872,15 +2905,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>32</v>
@@ -2892,31 +2925,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2925,66 +2958,231 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2811.8299999999999</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>177</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>32</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>151</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>171</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>178</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>49</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>151</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>158</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>179</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>29</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>151</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>180</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>182</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>183</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>151</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>184</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>186</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>187</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>151</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>109</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2899.1100000000001</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>188</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>189</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>190</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3263,10 +3461,35 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -575,7 +575,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 12:30 PM</t>
+    <t>Sunday, 17 August, 2025 12:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -503,6 +503,15 @@
     <t>11.5000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -542,6 +551,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>مبرد اظافر</t>
   </si>
   <si>
@@ -575,7 +587,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 12:45 PM</t>
+    <t>Sunday, 17 August, 2025 12:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2814,10 +2826,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>166</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2847,10 +2859,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>169</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2866,7 +2878,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2899,7 +2911,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2909,11 +2921,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>32</v>
@@ -2925,14 +2937,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2942,14 +2954,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2958,14 +2970,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2975,14 +2987,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2991,14 +3003,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3008,14 +3020,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3024,14 +3036,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3041,11 +3053,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3057,14 +3069,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3074,11 +3086,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>32</v>
@@ -3090,14 +3102,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3140,49 +3152,82 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>190</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>191</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>151</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>109</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>110</v>
       </c>
-      <c t="s" r="Q65" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2899.1100000000001</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>188</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>189</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>190</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c t="s" r="Q66" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2918.1100000000001</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>192</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>193</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>194</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3486,10 +3531,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -479,6 +479,18 @@
     <t>جل صبار برطمان</t>
   </si>
   <si>
+    <t>جنتيانا نقط</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -587,7 +599,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 12:49 PM</t>
+    <t>Sunday, 17 August, 2025 12:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2796,7 +2808,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2812,7 +2824,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,7 +2850,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2855,14 +2867,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>169</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2871,7 +2883,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2888,14 +2900,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2904,14 +2916,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2921,11 +2933,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>32</v>
@@ -2937,14 +2949,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2954,11 +2966,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>32</v>
@@ -2970,14 +2982,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2987,14 +2999,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3003,14 +3015,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3020,11 +3032,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>29</v>
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3053,14 +3065,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3086,11 +3098,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>32</v>
@@ -3102,14 +3114,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3119,11 +3131,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>32</v>
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3185,49 +3197,82 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>194</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>195</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>151</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>109</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>110</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2918.1100000000001</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>192</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>193</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>194</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>2925.1100000000001</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>196</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>197</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>198</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3536,10 +3581,15 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -95,6 +95,12 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -125,9 +131,6 @@
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -599,7 +602,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 12:51 PM</t>
+    <t>Sunday, 17 August, 2025 1:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1382,14 +1385,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1398,14 +1401,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1415,14 +1418,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1431,14 +1434,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1448,14 +1451,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1464,14 +1467,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1481,11 +1484,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1497,14 +1500,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1514,14 +1517,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1530,14 +1533,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1547,14 +1550,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1563,14 +1566,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1580,14 +1583,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1596,14 +1599,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1613,14 +1616,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1629,14 +1632,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1646,11 +1649,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1662,14 +1665,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1679,14 +1682,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1695,14 +1698,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1712,14 +1715,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1728,14 +1731,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1745,14 +1748,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1761,14 +1764,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1778,14 +1781,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1801,7 +1804,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1811,14 +1814,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1827,14 +1830,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1844,14 +1847,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1860,14 +1863,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1877,14 +1880,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1893,14 +1896,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1910,14 +1913,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1926,14 +1929,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1943,14 +1946,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1959,14 +1962,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1976,14 +1979,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1992,14 +1995,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2009,11 +2012,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2025,14 +2028,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2042,11 +2045,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2058,14 +2061,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2075,14 +2078,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2091,14 +2094,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2108,14 +2111,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2124,14 +2127,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2141,14 +2144,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2157,14 +2160,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2174,14 +2177,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2190,14 +2193,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2207,14 +2210,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2223,14 +2226,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2240,14 +2243,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2256,14 +2259,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2273,14 +2276,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2289,14 +2292,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2306,11 +2309,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2322,14 +2325,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2339,11 +2342,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2362,7 +2365,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2372,11 +2375,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2388,14 +2391,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2405,14 +2408,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2421,14 +2424,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2438,14 +2441,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2454,14 +2457,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2471,11 +2474,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2487,14 +2490,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2504,14 +2507,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2520,14 +2523,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2537,14 +2540,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2553,7 +2556,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2570,14 +2573,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2586,14 +2589,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2603,11 +2606,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2619,14 +2622,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2636,14 +2639,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2652,31 +2655,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2685,31 +2688,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2725,24 +2728,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2758,24 +2761,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2784,31 +2787,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2817,31 +2820,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2850,31 +2853,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2883,31 +2886,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>173</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2916,31 +2919,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2949,31 +2952,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2982,31 +2985,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3022,24 +3025,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3048,31 +3051,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3081,31 +3084,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3121,24 +3124,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3154,24 +3157,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3180,31 +3183,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3213,66 +3216,99 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>195</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>196</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>152</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
         <v>110</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>2925.1100000000001</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>196</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>2951.8400000000001</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
         <v>197</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
         <v>198</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>199</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3586,10 +3622,15 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -395,7 +395,7 @@
     <t>39.00</t>
   </si>
   <si>
-    <t>12.8700</t>
+    <t>25.7400</t>
   </si>
   <si>
     <t>STREPTOQUIN 20 TABLETS</t>
@@ -533,7 +533,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -602,7 +605,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 1:01 PM</t>
+    <t>Sunday, 17 August, 2025 1:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2398,7 +2401,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2415,7 +2418,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2940,10 +2943,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2952,7 +2955,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2969,11 +2972,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -2985,7 +2988,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3002,11 +3005,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>34</v>
@@ -3018,7 +3021,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3051,14 +3054,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3084,7 +3087,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3101,11 +3104,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>31</v>
@@ -3117,7 +3120,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3134,11 +3137,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>34</v>
@@ -3150,7 +3153,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3183,7 +3186,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3200,11 +3203,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>34</v>
@@ -3216,14 +3219,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3233,11 +3236,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>34</v>
@@ -3249,14 +3252,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3278,13 +3281,13 @@
     </row>
     <row r="69" ht="25.5" customHeight="1">
       <c r="P69" s="13">
-        <v>2951.8400000000001</v>
+        <v>2966.71</v>
       </c>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c t="s" r="A70" s="14">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -3292,13 +3295,13 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c t="s" r="G70" s="15">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
       <c r="J70" s="16"/>
       <c t="s" r="K70" s="17">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L70" s="17"/>
       <c r="M70" s="17"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -200,13 +200,16 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:2</t>
+    <t>8:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>31.6800</t>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
@@ -245,6 +248,15 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -395,7 +407,7 @@
     <t>39.00</t>
   </si>
   <si>
-    <t>25.7400</t>
+    <t>38.6100</t>
   </si>
   <si>
     <t>STREPTOQUIN 20 TABLETS</t>
@@ -533,10 +545,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -569,9 +581,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>مبرد اظافر</t>
   </si>
   <si>
@@ -605,7 +614,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 1:02 PM</t>
+    <t>Sunday, 17 August, 2025 1:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1725,7 +1734,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1734,14 +1743,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1751,11 +1760,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>34</v>
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1784,11 +1793,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>34</v>
@@ -1800,7 +1809,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1833,7 +1842,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1850,11 +1859,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>34</v>
@@ -1866,14 +1875,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1883,14 +1892,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1899,14 +1908,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,14 +1925,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1956,7 +1965,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1965,7 +1974,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1982,11 +1991,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>34</v>
@@ -1998,14 +2007,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2015,14 +2024,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2031,14 +2040,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,11 +2057,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2064,14 +2073,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2081,11 +2090,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2097,14 +2106,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2114,14 +2123,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2130,14 +2139,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2147,14 +2156,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2163,14 +2172,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2180,14 +2189,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2196,14 +2205,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2236,7 +2245,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2246,14 +2255,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2262,14 +2271,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2279,14 +2288,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2295,14 +2304,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2319,7 +2328,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2335,7 +2344,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,11 +2354,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2361,14 +2370,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,11 +2387,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2394,14 +2403,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2418,7 +2427,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2427,14 +2436,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,14 +2453,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,14 +2486,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,14 +2502,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,11 +2519,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2526,14 +2535,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,14 +2552,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,14 +2568,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,11 +2585,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>34</v>
@@ -2592,7 +2601,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2609,14 +2618,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,14 +2634,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,7 +2651,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2665,7 +2674,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,14 +2684,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2691,28 +2700,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>34</v>
@@ -2731,21 +2740,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>34</v>
@@ -2757,7 +2766,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2770,15 +2779,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>34</v>
@@ -2790,28 +2799,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -2836,7 +2845,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2869,7 +2878,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2880,7 +2889,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2896,24 +2905,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2922,7 +2931,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2935,18 +2944,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2968,7 +2977,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2979,7 +2988,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,28 +2997,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>34</v>
@@ -3021,28 +3030,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>34</v>
@@ -3054,31 +3063,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,28 +3096,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>31</v>
@@ -3120,31 +3129,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3153,28 +3162,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3186,28 +3195,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>34</v>
@@ -3226,21 +3235,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>34</v>
@@ -3252,66 +3261,99 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>2966.71</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>198</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>199</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
         <v>200</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>156</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>114</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3052.8600000000001</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>201</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>202</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>203</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3630,10 +3672,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -614,7 +614,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 1:34 PM</t>
+    <t>Sunday, 17 August, 2025 1:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -77,9 +89,6 @@
     <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>156.00</t>
   </si>
   <si>
@@ -239,6 +248,15 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -614,7 +632,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 1:35 PM</t>
+    <t>Sunday, 17 August, 2025 1:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1354,7 +1372,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1387,7 +1405,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1397,11 +1415,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1413,14 +1431,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1430,14 +1448,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1446,14 +1464,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1463,14 +1481,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1479,14 +1497,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1503,7 +1521,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1519,7 +1537,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1552,7 +1570,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1562,14 +1580,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1578,14 +1596,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1595,14 +1613,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1611,14 +1629,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1635,7 +1653,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1651,7 +1669,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1668,7 +1686,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1684,7 +1702,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1717,7 +1735,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1727,14 +1745,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1743,14 +1761,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1760,14 +1778,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1776,14 +1794,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1793,14 +1811,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1809,14 +1827,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1826,14 +1844,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1842,14 +1860,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1859,14 +1877,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1882,7 +1900,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1915,7 +1933,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1932,7 +1950,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1948,7 +1966,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1965,7 +1983,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1974,14 +1992,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1991,14 +2009,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2007,14 +2025,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2024,14 +2042,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2047,7 +2065,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2064,7 +2082,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2080,7 +2098,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2090,14 +2108,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2106,14 +2124,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2123,11 +2141,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2139,14 +2157,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2156,14 +2174,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2179,7 +2197,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2196,7 +2214,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2212,7 +2230,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2229,7 +2247,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2245,7 +2263,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2255,14 +2273,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2271,14 +2289,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2288,14 +2306,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2304,14 +2322,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2328,7 +2346,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2344,7 +2362,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2354,11 +2372,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2370,14 +2388,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2387,14 +2405,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2403,14 +2421,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2420,11 +2438,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2436,14 +2454,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,14 +2471,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2469,14 +2487,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,14 +2504,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2502,14 +2520,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2519,14 +2537,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2535,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2552,14 +2570,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2575,7 +2593,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2592,7 +2610,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2608,7 +2626,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2625,7 +2643,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2641,7 +2659,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2651,14 +2669,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2667,14 +2685,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2691,7 +2709,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2707,7 +2725,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2717,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2740,13 +2758,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2757,7 +2775,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2773,24 +2791,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2799,31 +2817,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2832,20 +2850,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2856,7 +2874,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2865,31 +2883,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2898,31 +2916,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2931,31 +2949,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2964,20 +2982,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2988,7 +3006,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2997,31 +3015,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3030,31 +3048,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>185</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3070,24 +3088,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3096,31 +3114,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3129,31 +3147,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3162,28 +3180,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3195,28 +3213,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>34</v>
@@ -3228,31 +3246,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3261,31 +3279,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3294,66 +3312,132 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3052.8600000000001</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>201</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
         <v>202</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>162</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>203</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>205</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>206</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>162</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>120</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3134.5700000000002</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>207</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>208</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>209</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3677,10 +3761,20 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
     <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
   </si>
   <si>
@@ -440,7 +449,7 @@
     <t>126.00</t>
   </si>
   <si>
-    <t>41.5800</t>
+    <t>83.1600</t>
   </si>
   <si>
     <t>TEBOFORTIN FORTE 80MG 30 F.C. TAB.</t>
@@ -632,7 +641,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 1:36 PM</t>
+    <t>Sunday, 17 August, 2025 2:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1801,7 +1810,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1811,14 +1820,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1827,14 +1836,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1844,11 +1853,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>37</v>
@@ -1860,14 +1869,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1877,11 +1886,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>37</v>
@@ -1893,14 +1902,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1910,14 +1919,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1933,7 +1942,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1950,7 +1959,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1966,7 +1975,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1983,7 +1992,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1999,7 +2008,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2016,7 +2025,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2032,7 +2041,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2049,7 +2058,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2058,7 +2067,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2075,14 +2084,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>97</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2131,7 +2140,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2148,7 +2157,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2164,7 +2173,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2174,11 +2183,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2190,14 +2199,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2207,7 +2216,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2230,7 +2239,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2247,7 +2256,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2263,7 +2272,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2280,7 +2289,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2296,7 +2305,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2313,7 +2322,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2329,7 +2338,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2339,11 +2348,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>37</v>
@@ -2355,14 +2364,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2379,7 +2388,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2395,7 +2404,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2412,7 +2421,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2428,7 +2437,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2438,14 +2447,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2454,14 +2463,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2494,7 +2503,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2504,11 +2513,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2520,14 +2529,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2537,14 +2546,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2560,7 +2569,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2574,10 +2583,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2586,14 +2595,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2603,14 +2612,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2626,7 +2635,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2643,7 +2652,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2659,7 +2668,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2676,7 +2685,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2692,7 +2701,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2735,14 +2744,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2751,14 +2760,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2768,11 +2777,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2805,10 +2814,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2817,20 +2826,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2838,7 +2847,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>37</v>
@@ -2850,28 +2859,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>37</v>
@@ -2883,7 +2892,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2896,15 +2905,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>37</v>
@@ -2916,28 +2925,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>37</v>
@@ -2949,28 +2958,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>37</v>
@@ -2982,31 +2991,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3015,20 +3024,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3039,7 +3048,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3061,7 +3070,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3072,7 +3081,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>185</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3081,7 +3090,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3094,18 +3103,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>188</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3121,13 +3130,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3154,21 +3163,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>37</v>
@@ -3180,31 +3189,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3213,28 +3222,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>34</v>
@@ -3246,31 +3255,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3279,28 +3288,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>37</v>
@@ -3312,28 +3321,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>37</v>
@@ -3352,21 +3361,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>37</v>
@@ -3378,66 +3387,99 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>37</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3134.5700000000002</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>207</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>208</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
         <v>209</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>165</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>123</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3243.6500000000001</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>210</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>211</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>212</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3771,10 +3813,15 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -641,7 +641,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 2:06 PM</t>
+    <t>Sunday, 17 August, 2025 2:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -314,6 +326,15 @@
     <t>143.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>LIT UP SOAP 100 GM</t>
   </si>
   <si>
@@ -641,7 +662,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 2:45 PM</t>
+    <t>Sunday, 17 August, 2025 2:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1381,7 +1402,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1391,11 +1412,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1407,7 +1428,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1424,11 +1445,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1440,14 +1461,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1457,11 +1478,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1473,14 +1494,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1490,14 +1511,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1506,14 +1527,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1523,14 +1544,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1546,7 +1567,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1556,14 +1577,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1572,14 +1593,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1589,11 +1610,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1605,14 +1626,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1629,7 +1650,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1662,7 +1683,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1678,7 +1699,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1688,14 +1709,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1704,14 +1725,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1721,14 +1742,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1737,14 +1758,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1754,11 +1775,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1770,14 +1791,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1794,7 +1815,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1803,14 +1824,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1827,7 +1848,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1836,14 +1857,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1860,7 +1881,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1893,7 +1914,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1909,7 +1930,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1919,14 +1940,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1935,14 +1956,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1952,14 +1973,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1968,14 +1989,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1985,14 +2006,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2001,14 +2022,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2018,14 +2039,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2034,14 +2055,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2051,14 +2072,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2067,14 +2088,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,14 +2105,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2107,7 +2128,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2124,7 +2145,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>37</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2133,14 +2154,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2150,14 +2171,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2166,14 +2187,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,11 +2204,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2199,14 +2220,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,14 +2237,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2232,14 +2253,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,11 +2270,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2265,14 +2286,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,14 +2303,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2298,14 +2319,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2315,14 +2336,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2331,14 +2352,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,14 +2369,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,14 +2385,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2388,7 +2409,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2404,7 +2425,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2421,7 +2442,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2437,7 +2458,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2447,14 +2468,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2463,14 +2484,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2503,7 +2524,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2520,7 +2541,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2536,7 +2557,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,11 +2567,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2562,14 +2583,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,14 +2600,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,14 +2616,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2616,10 +2637,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,14 +2649,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,14 +2666,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2661,14 +2682,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,14 +2699,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2694,14 +2715,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,14 +2732,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,14 +2748,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,14 +2765,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2760,14 +2781,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,14 +2798,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2793,14 +2814,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2810,14 +2831,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2826,14 +2847,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,14 +2864,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,31 +2880,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2892,31 +2913,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2925,31 +2946,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2958,31 +2979,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2991,31 +3012,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3024,31 +3045,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,20 +3078,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3081,7 +3102,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3097,24 +3118,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3130,13 +3151,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3147,7 +3168,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3163,13 +3184,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3180,7 +3201,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>37</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3189,31 +3210,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3222,31 +3243,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3255,31 +3276,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3288,31 +3309,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3321,31 +3342,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3354,31 +3375,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3387,31 +3408,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3427,59 +3448,125 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3243.6500000000001</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>210</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>211</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
         <v>212</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>172</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>213</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>215</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>216</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>172</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>130</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3290.1799999999998</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>217</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>218</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>219</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3818,10 +3905,20 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -305,6 +305,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -662,7 +671,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 2:46 PM</t>
+    <t>Sunday, 17 August, 2025 3:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2128,7 +2137,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2145,7 +2154,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2154,7 +2163,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2171,14 +2180,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>104</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2194,7 +2203,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2204,14 +2213,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2227,7 +2236,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2237,14 +2246,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2260,7 +2269,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2277,7 +2286,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2293,7 +2302,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2303,11 +2312,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2319,14 +2328,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2336,7 +2345,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2359,7 +2368,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2376,7 +2385,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2392,7 +2401,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2409,7 +2418,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2425,7 +2434,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2442,7 +2451,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2458,7 +2467,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2468,11 +2477,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>41</v>
@@ -2484,14 +2493,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2508,7 +2517,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2524,7 +2533,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2541,7 +2550,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2557,7 +2566,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2567,14 +2576,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2583,14 +2592,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2623,7 +2632,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2633,11 +2642,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2649,14 +2658,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2666,14 +2675,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2689,7 +2698,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2703,10 +2712,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2715,14 +2724,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2732,14 +2741,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2755,7 +2764,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2772,7 +2781,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2788,7 +2797,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2805,7 +2814,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2821,7 +2830,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2864,14 +2873,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2880,14 +2889,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2897,11 +2906,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2913,14 +2922,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2934,10 +2943,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2946,7 +2955,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2959,7 +2968,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2967,7 +2976,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>41</v>
@@ -2979,28 +2988,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>41</v>
@@ -3012,7 +3021,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3025,15 +3034,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>41</v>
@@ -3045,28 +3054,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>41</v>
@@ -3078,28 +3087,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>41</v>
@@ -3111,31 +3120,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3144,20 +3153,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3168,7 +3177,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3190,7 +3199,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3201,7 +3210,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>195</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3210,7 +3219,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3223,18 +3232,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>198</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3250,13 +3259,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3283,21 +3292,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>41</v>
@@ -3309,31 +3318,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3342,28 +3351,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>38</v>
@@ -3375,31 +3384,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3408,28 +3417,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>41</v>
@@ -3441,28 +3450,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>41</v>
@@ -3481,21 +3490,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>41</v>
@@ -3507,66 +3516,99 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>41</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3290.1799999999998</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>217</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>218</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
         <v>219</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>175</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>133</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3309.1799999999998</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>220</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>221</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>222</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3915,10 +3957,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -671,7 +671,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 3:56 PM</t>
+    <t>Sunday, 17 August, 2025 4:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -575,6 +575,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن</t>
   </si>
   <si>
@@ -611,9 +620,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>3.0000</t>
   </si>
   <si>
@@ -662,16 +668,13 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 4:01 PM</t>
+    <t>Sunday, 17 August, 2025 4:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2104,7 +2107,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2203,7 +2206,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2401,7 +2404,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2830,7 +2833,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2863,7 +2866,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3160,7 +3163,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3170,14 +3173,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3186,14 +3189,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3210,7 +3213,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3243,7 +3246,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>198</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3252,7 +3255,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3269,14 +3272,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>201</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3292,7 +3295,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3302,11 +3305,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>41</v>
@@ -3318,14 +3321,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3335,11 +3338,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>41</v>
@@ -3351,14 +3354,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3368,14 +3371,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3391,7 +3394,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3401,11 +3404,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>38</v>
@@ -3417,14 +3420,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3434,14 +3437,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3450,14 +3453,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3467,11 +3470,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>41</v>
@@ -3483,14 +3486,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3500,11 +3503,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>41</v>
@@ -3516,14 +3519,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3533,11 +3536,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>41</v>
@@ -3549,14 +3552,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3566,49 +3569,82 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>219</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>220</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>175</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>133</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
         <v>134</v>
       </c>
-      <c t="s" r="Q75" s="12">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3309.1799999999998</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>220</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c t="s" r="Q76" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3315.1799999999998</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
         <v>221</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
         <v>222</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>223</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3962,10 +3998,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>ASPOCID 75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -191,6 +203,15 @@
     <t>69.3000</t>
   </si>
   <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -278,6 +299,15 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -317,9 +347,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -368,15 +395,21 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
     <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
     <t>128.00</t>
   </si>
   <si>
-    <t>15.3600</t>
-  </si>
-  <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
   </si>
   <si>
@@ -404,6 +437,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>PURGATON 20MG 30 TAB.</t>
   </si>
   <si>
@@ -509,6 +551,24 @@
     <t>222.0000</t>
   </si>
   <si>
+    <t>TRITACE 1.25MG 14 TAB</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -530,9 +590,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -674,7 +731,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 4:09 PM</t>
+    <t>Sunday, 17 August, 2025 5:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1480,7 +1537,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1490,11 +1547,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1506,14 +1563,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1523,11 +1580,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1539,14 +1596,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1556,14 +1613,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1572,14 +1629,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1589,14 +1646,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1612,7 +1669,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1622,14 +1679,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1638,14 +1695,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1655,11 +1712,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1671,14 +1728,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1695,7 +1752,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1728,7 +1785,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1744,7 +1801,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1754,14 +1811,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1770,14 +1827,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1787,11 +1844,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1803,14 +1860,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1820,14 +1877,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1836,14 +1893,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1860,7 +1917,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1869,14 +1926,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1886,11 +1943,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1902,14 +1959,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1919,14 +1976,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1942,7 +1999,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1952,14 +2009,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1968,14 +2025,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1985,14 +2042,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2001,14 +2058,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2018,14 +2075,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2034,14 +2091,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,14 +2108,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2067,14 +2124,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2084,11 +2141,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2100,14 +2157,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2117,14 +2174,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2133,14 +2190,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2150,14 +2207,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2166,14 +2223,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2183,14 +2240,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2206,7 +2263,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2223,7 +2280,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2239,7 +2296,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2249,7 +2306,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2272,7 +2329,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,14 +2339,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2305,7 +2362,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2322,7 +2379,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2338,7 +2395,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2348,11 +2405,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2364,14 +2421,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,14 +2438,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2397,14 +2454,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2414,14 +2471,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2430,14 +2487,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2447,14 +2504,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2470,7 +2527,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2487,7 +2544,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2503,7 +2560,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2513,14 +2570,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2529,14 +2586,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2546,14 +2603,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2562,14 +2619,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2579,14 +2636,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2595,14 +2652,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2612,14 +2669,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2628,14 +2685,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,11 +2702,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2661,14 +2718,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,14 +2735,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2701,7 +2758,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2718,7 +2775,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2734,7 +2791,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2748,10 +2805,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2760,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2834,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2793,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,11 +2867,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2826,14 +2883,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,14 +2900,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2883,7 +2940,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2899,7 +2956,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,14 +2966,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2932,7 +2989,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,14 +2999,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2958,14 +3015,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,14 +3032,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2998,24 +3055,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3024,31 +3081,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3057,31 +3114,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,31 +3147,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3123,31 +3180,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3163,24 +3220,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3189,31 +3246,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,31 +3279,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3255,31 +3312,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>201</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3288,31 +3345,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,31 +3378,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3354,31 +3411,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,31 +3444,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3427,24 +3484,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,31 +3510,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3486,31 +3543,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>41</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3519,31 +3576,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3552,31 +3609,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3585,66 +3642,297 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3315.1799999999998</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>221</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>222</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>223</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>227</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>228</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>194</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>205</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>229</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>61</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>194</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>224</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>230</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>45</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>194</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>224</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>231</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>61</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>194</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>205</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>232</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>42</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>194</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>233</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>235</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>236</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>194</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>237</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>238</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>239</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>194</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>147</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>3506.9000000000001</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>240</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>241</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>242</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4003,10 +4291,45 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -560,6 +560,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>TRYPSALIN PLUS 30 TABS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -731,7 +740,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 5:08 PM</t>
+    <t>Sunday, 17 August, 2025 5:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3154,7 +3163,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3187,7 +3196,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3197,11 +3206,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3213,14 +3222,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3230,11 +3239,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3246,14 +3255,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3263,14 +3272,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3279,7 +3288,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3292,15 +3301,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>45</v>
@@ -3312,28 +3321,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>45</v>
@@ -3345,7 +3354,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3358,15 +3367,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>45</v>
@@ -3378,28 +3387,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>45</v>
@@ -3411,28 +3420,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>45</v>
@@ -3444,20 +3453,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3468,7 +3477,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3484,24 +3493,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3510,20 +3519,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3534,7 +3543,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3556,7 +3565,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3567,7 +3576,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,7 +3585,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3589,18 +3598,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>45</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,24 +3618,24 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3649,21 +3658,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>45</v>
@@ -3675,31 +3684,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3708,28 +3717,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>42</v>
@@ -3741,31 +3750,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3774,28 +3783,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>45</v>
@@ -3807,28 +3816,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>45</v>
@@ -3847,21 +3856,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>45</v>
@@ -3886,53 +3895,86 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>241</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>242</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>197</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>147</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>148</v>
       </c>
-      <c t="s" r="Q83" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>3506.9000000000001</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>240</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>241</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>242</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>3586.9000000000001</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>243</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>244</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>245</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4326,10 +4368,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -740,7 +740,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 5:10 PM</t>
+    <t>Sunday, 17 August, 2025 5:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -509,6 +509,12 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -740,7 +746,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 5:23 PM</t>
+    <t>Sunday, 17 August, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2965,7 +2971,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2975,11 +2981,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>45</v>
@@ -2998,7 +3004,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3012,10 +3018,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3024,14 +3030,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3041,14 +3047,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3057,14 +3063,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3074,14 +3080,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3090,14 +3096,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3107,11 +3113,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>45</v>
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3140,14 +3146,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3156,14 +3162,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3173,11 +3179,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3189,14 +3195,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3206,11 +3212,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3222,14 +3228,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3239,7 +3245,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3262,7 +3268,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3272,11 +3278,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3288,14 +3294,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3305,14 +3311,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3321,7 +3327,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3334,15 +3340,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>45</v>
@@ -3354,28 +3360,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>45</v>
@@ -3387,7 +3393,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3400,15 +3406,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>45</v>
@@ -3420,28 +3426,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>45</v>
@@ -3453,28 +3459,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>45</v>
@@ -3486,31 +3492,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3519,31 +3525,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3552,31 +3558,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3585,7 +3591,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3598,18 +3604,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>223</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3618,7 +3624,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3631,18 +3637,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>225</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>45</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3658,21 +3664,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>45</v>
@@ -3684,28 +3690,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>45</v>
@@ -3717,31 +3723,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3757,21 +3763,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>42</v>
@@ -3783,31 +3789,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3816,28 +3822,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>45</v>
@@ -3849,28 +3855,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>45</v>
@@ -3882,28 +3888,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>45</v>
@@ -3915,66 +3921,99 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>243</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>244</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>199</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>147</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>148</v>
       </c>
-      <c t="s" r="Q84" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>3586.9000000000001</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>243</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>244</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c t="s" r="Q85" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>3716.9000000000001</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
         <v>245</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>246</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>247</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4373,10 +4412,15 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -746,7 +746,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 5:24 PM</t>
+    <t>Sunday, 17 August, 2025 5:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -254,6 +254,12 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>ECOTO 20 PIECES</t>
   </si>
   <si>
@@ -308,6 +314,15 @@
     <t>24.00</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -539,6 +554,15 @@
     <t>54.4500</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -602,6 +626,18 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8389:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -674,15 +710,9 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -746,7 +776,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 5:26 PM</t>
+    <t>Sunday, 17 August, 2025 5:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2014,7 +2044,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2024,14 +2054,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2040,14 +2070,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2057,14 +2087,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2073,14 +2103,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2090,11 +2120,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>45</v>
@@ -2106,14 +2136,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2123,11 +2153,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>45</v>
@@ -2139,14 +2169,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2156,14 +2186,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2172,14 +2202,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2189,14 +2219,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2205,14 +2235,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2226,10 +2256,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2238,14 +2268,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2255,14 +2285,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2271,14 +2301,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2288,11 +2318,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>45</v>
@@ -2304,14 +2334,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2321,11 +2351,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2337,14 +2367,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2354,14 +2384,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2370,7 +2400,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2387,14 +2417,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2403,14 +2433,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2420,14 +2450,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2436,14 +2466,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2453,11 +2483,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>45</v>
@@ -2469,14 +2499,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2486,11 +2516,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2502,14 +2532,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2519,14 +2549,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2542,7 +2572,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2575,7 +2605,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2585,11 +2615,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2608,7 +2638,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2625,7 +2655,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2641,7 +2671,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2655,10 +2685,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2667,14 +2697,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2684,11 +2714,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>45</v>
@@ -2700,14 +2730,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2717,14 +2747,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2733,14 +2763,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2750,11 +2780,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>45</v>
@@ -2766,14 +2796,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2783,11 +2813,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2799,14 +2829,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2816,11 +2846,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>45</v>
@@ -2832,14 +2862,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2849,11 +2879,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2865,14 +2895,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2882,14 +2912,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2898,14 +2928,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2915,11 +2945,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2931,14 +2961,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2948,14 +2978,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2964,14 +2994,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,14 +3011,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3004,7 +3034,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3018,10 +3048,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3030,7 +3060,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3047,14 +3077,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3070,7 +3100,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3084,10 +3114,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3096,14 +3126,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,14 +3143,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3129,14 +3159,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3146,14 +3176,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3162,14 +3192,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3179,14 +3209,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3195,14 +3225,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3212,14 +3242,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3228,14 +3258,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3245,14 +3275,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3261,7 +3291,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3278,7 +3308,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3301,7 +3331,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3311,11 +3341,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3327,14 +3357,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3344,14 +3374,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3360,31 +3390,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3393,31 +3423,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3426,31 +3456,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3459,28 +3489,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>45</v>
@@ -3492,28 +3522,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>45</v>
@@ -3525,31 +3555,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3565,24 +3595,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3591,28 +3621,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>45</v>
@@ -3624,31 +3654,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>225</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3657,7 +3687,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3670,18 +3700,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3690,20 +3720,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3714,7 +3744,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3730,21 +3760,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>45</v>
@@ -3756,31 +3786,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>42</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3789,7 +3819,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3802,18 +3832,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3822,7 +3852,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3835,15 +3865,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>45</v>
@@ -3855,28 +3885,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>45</v>
@@ -3888,31 +3918,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3921,31 +3951,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3954,66 +3984,198 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>45</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>3716.9000000000001</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>245</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>246</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>61</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>211</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>222</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>247</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>42</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>211</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>248</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>250</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>251</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>211</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>252</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>253</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>254</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>211</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>152</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>3927.9000000000001</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>255</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>256</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>257</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4417,10 +4579,30 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -776,7 +776,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 5:35 PM</t>
+    <t>Sunday, 17 August, 2025 5:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -554,15 +554,6 @@
     <t>54.4500</t>
   </si>
   <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -776,7 +767,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 5:41 PM</t>
+    <t>Sunday, 17 August, 2025 5:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3232,7 +3223,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3265,7 +3256,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3282,7 +3273,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3298,7 +3289,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3331,7 +3322,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3364,7 +3355,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3374,11 +3365,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3390,14 +3381,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3407,11 +3398,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3423,14 +3414,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3440,14 +3431,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3456,14 +3447,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3473,14 +3464,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3489,7 +3480,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3502,15 +3493,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>45</v>
@@ -3522,28 +3513,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>45</v>
@@ -3555,7 +3546,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3568,15 +3559,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>45</v>
@@ -3588,28 +3579,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>45</v>
@@ -3621,28 +3612,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>45</v>
@@ -3654,20 +3645,20 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3678,7 +3669,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3694,24 +3685,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3720,20 +3711,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3741,10 +3732,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3753,7 +3744,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3766,18 +3757,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>45</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3799,18 +3790,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>235</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3819,24 +3810,24 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3859,21 +3850,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>45</v>
@@ -3885,31 +3876,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3918,28 +3909,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>61</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>42</v>
@@ -3951,31 +3942,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3984,28 +3975,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>45</v>
@@ -4017,28 +4008,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>45</v>
@@ -4057,21 +4048,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>45</v>
@@ -4096,86 +4087,53 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>45</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="A89" s="7">
-        <v>83</v>
-      </c>
-      <c r="B89" s="7"/>
-      <c t="s" r="C89" s="8">
+      <c r="P89" s="13">
+        <v>3877.9000000000001</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>252</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
         <v>253</v>
       </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c t="s" r="H89" s="9">
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
         <v>254</v>
       </c>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c t="s" r="L89" s="10">
-        <v>211</v>
-      </c>
-      <c r="M89" s="10"/>
-      <c t="s" r="N89" s="8">
-        <v>152</v>
-      </c>
-      <c r="O89" s="8"/>
-      <c t="s" r="P89" s="11">
-        <v>153</v>
-      </c>
-      <c t="s" r="Q89" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>3927.9000000000001</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>255</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>256</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>257</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4594,15 +4552,10 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -767,7 +767,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 5:43 PM</t>
+    <t>Sunday, 17 August, 2025 5:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -767,7 +767,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 5:44 PM</t>
+    <t>Sunday, 17 August, 2025 5:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -119,6 +119,21 @@
     <t>10.8900</t>
   </si>
   <si>
+    <t>ATORSTAT 80MG 10 BISCORED TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -146,9 +161,6 @@
     <t>83.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BRINGO TOPICAL LOTION 120ML</t>
   </si>
   <si>
@@ -194,9 +206,6 @@
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>210.00</t>
   </si>
   <si>
@@ -767,7 +776,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 5:50 PM</t>
+    <t>Sunday, 17 August, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1606,7 +1615,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1649,11 +1658,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1682,14 +1691,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1722,7 +1731,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1738,7 +1747,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1748,14 +1757,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1764,14 +1773,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1781,11 +1790,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1821,7 +1830,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1854,7 +1863,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1870,7 +1879,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1903,7 +1912,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1920,7 +1929,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1936,7 +1945,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1953,7 +1962,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1969,7 +1978,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2002,7 +2011,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2012,14 +2021,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2045,14 +2054,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2061,14 +2070,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2078,14 +2087,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2101,7 +2110,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2111,14 +2120,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2127,14 +2136,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2144,14 +2153,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2160,14 +2169,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2177,14 +2186,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2193,14 +2202,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2233,7 +2242,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2266,7 +2275,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2276,14 +2285,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2299,7 +2308,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2316,7 +2325,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2332,7 +2341,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2349,7 +2358,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2365,7 +2374,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2382,7 +2391,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2398,7 +2407,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2415,7 +2424,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2431,7 +2440,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2464,7 +2473,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2474,14 +2483,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2497,7 +2506,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2507,14 +2516,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2530,7 +2539,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2563,7 +2572,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2580,7 +2589,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2596,7 +2605,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2606,11 +2615,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2639,7 +2648,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2676,7 +2685,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2705,14 +2714,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2728,7 +2737,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2745,7 +2754,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2761,7 +2770,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2778,7 +2787,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2794,7 +2803,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2811,7 +2820,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2827,7 +2836,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2837,14 +2846,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2853,14 +2862,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2877,7 +2886,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2893,7 +2902,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2910,7 +2919,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2926,7 +2935,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2936,14 +2945,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2952,14 +2961,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2992,7 +3001,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3002,11 +3011,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3018,14 +3027,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3035,14 +3044,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3058,7 +3067,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3068,14 +3077,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3084,14 +3093,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3101,14 +3110,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3117,14 +3126,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3134,14 +3143,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3174,7 +3183,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3190,7 +3199,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3207,7 +3216,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3223,7 +3232,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3240,7 +3249,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3256,7 +3265,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3273,7 +3282,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3289,7 +3298,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3322,7 +3331,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3355,7 +3364,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3365,11 +3374,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3381,14 +3390,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3398,11 +3407,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3414,14 +3423,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3431,14 +3440,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3447,14 +3456,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3464,14 +3473,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3480,31 +3489,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3513,31 +3522,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3546,31 +3555,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3579,31 +3588,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3612,31 +3621,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3645,20 +3654,20 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3669,7 +3678,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3685,24 +3694,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3711,20 +3720,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3732,10 +3741,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3744,31 +3753,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>232</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3784,24 +3793,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>45</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3810,31 +3819,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3850,24 +3859,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3876,31 +3885,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3909,31 +3918,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>61</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3942,31 +3951,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3975,31 +3984,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4008,31 +4017,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4048,24 +4057,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4087,53 +4096,86 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>3877.9000000000001</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>252</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>253</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
         <v>254</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>211</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>155</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>3941.9000000000001</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>255</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>256</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>257</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4552,10 +4594,15 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -776,7 +776,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 6:01 PM</t>
+    <t>Sunday, 17 August, 2025 6:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -77,351 +77,354 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>24.9600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ASPOCID 75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>ATORSTAT 80MG 10 BISCORED TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BRINGO TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>91.7700</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>LAMICTAL 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>143.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LIT UP SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
     <t>1:5</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ASPOCID 75MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t>ATORSTAT 80MG 10 BISCORED TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BRINGO TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>91.7700</t>
-  </si>
-  <si>
-    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>31.5000</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>LAMICTAL 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>143.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LIT UP SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -452,6 +455,18 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PENCILONG VIAL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>PRONTO PLUS 20 TAB.</t>
   </si>
   <si>
@@ -644,15 +659,6 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">بيبرونه ALGO صغيره </t>
   </si>
   <si>
@@ -713,39 +719,42 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>شامبو جونسون 100 مل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
     <t>مبرد اظافر</t>
   </si>
   <si>
@@ -773,10 +782,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>Sunday, 17 August, 2025 6:02 PM</t>
+    <t>Sunday, 17 August, 2025 6:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1500,7 +1506,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1509,14 +1515,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1526,11 +1532,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1542,7 +1548,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1559,11 +1565,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1575,14 +1581,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1592,11 +1598,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1608,14 +1614,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1625,14 +1631,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1641,7 +1647,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1658,11 +1664,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1674,14 +1680,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1691,11 +1697,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1707,14 +1713,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1724,14 +1730,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1740,14 +1746,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1757,14 +1763,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1773,14 +1779,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1790,11 +1796,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1806,14 +1812,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1823,11 +1829,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1839,14 +1845,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1879,7 +1885,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1945,7 +1951,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1962,7 +1968,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1978,7 +1984,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2011,7 +2017,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2091,10 +2097,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2110,7 +2116,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2160,7 +2166,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2193,7 +2199,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2209,7 +2215,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2223,10 +2229,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2242,7 +2248,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2289,10 +2295,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2325,7 +2331,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2358,7 +2364,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2407,7 +2413,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2424,7 +2430,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2440,7 +2446,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2473,7 +2479,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2506,7 +2512,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2523,7 +2529,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2572,7 +2578,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2589,7 +2595,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2648,7 +2654,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2671,7 +2677,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2681,11 +2687,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2697,14 +2703,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2714,11 +2720,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2730,14 +2736,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2747,14 +2753,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2763,14 +2769,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2780,14 +2786,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2796,31 +2802,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2829,14 +2835,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2846,14 +2852,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2862,14 +2868,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2879,14 +2885,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2895,14 +2901,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2912,14 +2918,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2928,14 +2934,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2945,14 +2951,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2961,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2978,14 +2984,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2994,14 +3000,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3011,11 +3017,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3027,14 +3033,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3044,11 +3050,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3060,14 +3066,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3077,14 +3083,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3093,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3110,14 +3116,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3126,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3143,14 +3149,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3159,14 +3165,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3176,14 +3182,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3192,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3209,14 +3215,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3225,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3242,14 +3248,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3258,14 +3264,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3275,14 +3281,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3291,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3308,14 +3314,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3324,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3341,11 +3347,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3357,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3374,11 +3380,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3390,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3407,11 +3413,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3423,14 +3429,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3440,11 +3446,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3456,14 +3462,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3473,14 +3479,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3489,14 +3495,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3506,14 +3512,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3522,7 +3528,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3535,18 +3541,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3555,31 +3561,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3588,31 +3594,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3621,31 +3627,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3654,31 +3660,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3687,31 +3693,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3720,31 +3726,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3753,31 +3759,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3793,24 +3799,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>235</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3819,31 +3825,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>237</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3859,24 +3865,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3885,31 +3891,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3918,31 +3924,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3958,24 +3964,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3984,31 +3990,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4017,31 +4023,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4050,31 +4056,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4090,24 +4096,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>48</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4129,53 +4135,86 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>3941.9000000000001</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>255</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>256</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>237</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>149</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>160</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>3989.3800000000001</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
         <v>257</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>258</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>259</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4599,10 +4638,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -782,7 +782,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 6:04 PM</t>
+    <t>Sunday, 17 August, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -248,6 +248,24 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEXATOBRIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>DIPROSALIC LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -569,6 +587,15 @@
     <t>83.1600</t>
   </si>
   <si>
+    <t>STRONGVILLE MEN HAIR SHAMPOO &amp; CONDITIONER 120 ML</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
     <t>TEBOFORTIN FORTE 80MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -782,7 +809,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 6:15 PM</t>
+    <t>Sunday, 17 August, 2025 6:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2050,7 +2077,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2060,14 +2087,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2076,14 +2103,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2093,11 +2120,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>41</v>
@@ -2109,14 +2136,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2133,7 +2160,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2142,14 +2169,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2159,11 +2186,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>41</v>
@@ -2175,14 +2202,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2192,14 +2219,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2208,14 +2235,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,11 +2252,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>41</v>
@@ -2241,14 +2268,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2258,14 +2285,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2274,14 +2301,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,14 +2318,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2314,7 +2341,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2331,7 +2358,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2347,7 +2374,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2357,14 +2384,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2380,7 +2407,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2397,7 +2424,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2413,7 +2440,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2446,7 +2473,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2479,7 +2506,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2489,14 +2516,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2529,7 +2556,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2545,7 +2572,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2555,14 +2582,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2578,7 +2605,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2611,7 +2638,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2621,7 +2648,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2644,7 +2671,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2654,14 +2681,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2670,14 +2697,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2710,7 +2737,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2720,11 +2747,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2743,7 +2770,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2753,14 +2780,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2769,14 +2796,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2786,14 +2813,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2809,21 +2836,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>41</v>
@@ -2835,14 +2862,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2852,14 +2879,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2868,20 +2895,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2892,7 +2919,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2908,7 +2935,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,11 +2945,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>41</v>
@@ -2934,14 +2961,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2951,11 +2978,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2967,14 +2994,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3007,7 +3034,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,11 +3044,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3033,14 +3060,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3050,14 +3077,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3066,14 +3093,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3083,11 +3110,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3099,14 +3126,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3116,14 +3143,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3132,14 +3159,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,14 +3176,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3165,14 +3192,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,14 +3209,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3198,7 +3225,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3215,14 +3242,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3231,14 +3258,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3248,14 +3275,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3271,7 +3298,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3288,7 +3315,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3304,7 +3331,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3337,7 +3364,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3370,7 +3397,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3387,7 +3414,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3403,7 +3430,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3420,7 +3447,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3446,11 +3473,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3462,14 +3489,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3502,7 +3529,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,14 +3539,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3528,14 +3555,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3545,14 +3572,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3568,24 +3595,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3594,31 +3621,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3627,28 +3654,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>41</v>
@@ -3660,28 +3687,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>41</v>
@@ -3693,28 +3720,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>41</v>
@@ -3733,24 +3760,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3759,31 +3786,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3792,28 +3819,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>41</v>
@@ -3838,18 +3865,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>237</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3865,24 +3892,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3891,28 +3918,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>41</v>
@@ -3924,31 +3951,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>41</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3957,31 +3984,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3990,31 +4017,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,28 +4050,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>41</v>
@@ -4056,31 +4083,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>254</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4089,31 +4116,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4122,31 +4149,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4155,66 +4182,165 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>41</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>3989.3800000000001</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>257</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>258</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>259</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>48</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>155</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>260</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>262</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>263</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>155</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>264</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>265</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>246</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>155</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>166</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4279.3800000000001</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>266</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>267</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>268</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4643,10 +4769,25 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -185,6 +185,12 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -437,6 +443,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
   </si>
   <si>
@@ -623,6 +638,12 @@
     <t>222.0000</t>
   </si>
   <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
     <t>TRITACE 1.25MG 14 TAB</t>
   </si>
   <si>
@@ -659,9 +680,6 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -746,70 +764,70 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>34.0000</t>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>مبرد اظافر</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مناديل جيب مبلله </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب</t>
   </si>
   <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>شامبو جونسون 100 مل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>مبرد اظافر</t>
-  </si>
-  <si>
-    <t>مبرد قدم</t>
-  </si>
-  <si>
-    <t>معجون سنسوداين صغير</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مناديل جيب مبلله </t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>مناديل سولو سحب</t>
-  </si>
-  <si>
-    <t>Sunday, 17 August, 2025 6:25 PM</t>
+    <t>Sunday, 17 August, 2025 6:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1846,7 +1864,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1856,11 +1874,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1872,14 +1890,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1889,14 +1907,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1922,14 +1940,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1938,14 +1956,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1955,11 +1973,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1971,14 +1989,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1988,14 +2006,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2004,7 +2022,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2021,14 +2039,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2037,14 +2055,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2054,11 +2072,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2070,14 +2088,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2087,14 +2105,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2103,14 +2121,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2120,11 +2138,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>41</v>
@@ -2136,14 +2154,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2153,14 +2171,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2169,14 +2187,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2186,14 +2204,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2209,7 +2227,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2219,14 +2237,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2235,14 +2253,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2252,14 +2270,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2268,14 +2286,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2285,11 +2303,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>41</v>
@@ -2301,14 +2319,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2318,11 +2336,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>41</v>
@@ -2334,14 +2352,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2351,14 +2369,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2367,14 +2385,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2384,14 +2402,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2400,14 +2418,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2421,10 +2439,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2433,14 +2451,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2450,11 +2468,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>41</v>
@@ -2466,14 +2484,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2483,14 +2501,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2499,14 +2517,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2516,14 +2534,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2532,14 +2550,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2549,14 +2567,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2565,14 +2583,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2582,14 +2600,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2598,14 +2616,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2615,14 +2633,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>41</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2648,14 +2666,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2681,14 +2699,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2714,14 +2732,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2747,7 +2765,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2770,7 +2788,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2780,11 +2798,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2813,14 +2831,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2853,7 +2871,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2869,7 +2887,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2883,10 +2901,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2895,28 +2913,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>41</v>
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2945,14 +2963,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2961,31 +2979,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3011,11 +3029,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>41</v>
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3044,11 +3062,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3060,14 +3078,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3077,11 +3095,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>41</v>
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3110,11 +3128,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3126,14 +3144,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3143,14 +3161,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3159,14 +3177,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3176,11 +3194,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3192,14 +3210,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3209,14 +3227,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3225,14 +3243,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3242,14 +3260,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3265,7 +3283,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3279,10 +3297,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3291,7 +3309,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3308,14 +3326,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3345,7 +3363,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>41</v>
@@ -3357,14 +3375,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3374,14 +3392,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3390,14 +3408,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3407,11 +3425,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>41</v>
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3440,14 +3458,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3456,14 +3474,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3473,14 +3491,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3506,14 +3524,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3522,14 +3540,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3539,11 +3557,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3555,7 +3573,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3572,11 +3590,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3605,11 +3623,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3638,14 +3656,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3654,14 +3672,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3671,14 +3689,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3687,31 +3705,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3727,24 +3745,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3753,28 +3771,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>41</v>
@@ -3786,28 +3804,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>41</v>
@@ -3826,21 +3844,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>41</v>
@@ -3852,31 +3870,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3885,31 +3903,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3918,28 +3936,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>41</v>
@@ -3951,7 +3969,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3964,18 +3982,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>246</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3984,31 +4002,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4017,28 +4035,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>41</v>
@@ -4050,31 +4068,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>41</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4083,31 +4101,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4116,31 +4134,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4156,24 +4174,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4189,24 +4207,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4215,31 +4233,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4255,24 +4273,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4281,66 +4299,165 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>41</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4279.3800000000001</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>264</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>48</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>160</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>265</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>266</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c t="s" r="Q94" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>267</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
         <v>268</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>160</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>269</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>270</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>271</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>160</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>171</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4388.1099999999997</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>272</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>273</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>274</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4784,10 +4901,25 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -245,6 +254,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -374,6 +392,15 @@
     <t>55.4400</t>
   </si>
   <si>
+    <t>HALONACE 5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -503,12 +530,6 @@
     <t>PRONTO PLUS 20 TAB.</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>PROTOFIX 40MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -827,7 +848,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 6:30 PM</t>
+    <t>Sunday, 17 August, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1930,7 +1951,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1947,7 +1968,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1963,7 +1984,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1980,7 +2001,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1996,7 +2017,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2029,7 +2050,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2046,7 +2067,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2079,7 +2100,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2095,7 +2116,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2161,7 +2182,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2178,7 +2199,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2194,7 +2215,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2204,14 +2225,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2220,14 +2241,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2237,11 +2258,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>41</v>
@@ -2253,14 +2274,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2277,7 +2298,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2303,11 +2324,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>41</v>
@@ -2319,14 +2340,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2336,14 +2357,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2352,14 +2373,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2369,11 +2390,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>41</v>
@@ -2385,14 +2406,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2402,14 +2423,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2418,14 +2439,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2435,14 +2456,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2458,7 +2479,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2475,7 +2496,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2491,7 +2512,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2501,14 +2522,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2524,7 +2545,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2541,7 +2562,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2557,7 +2578,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2590,7 +2611,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2633,14 +2654,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2656,7 +2677,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2689,7 +2710,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2699,7 +2720,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2732,14 +2753,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>138</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2755,7 +2776,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2772,7 +2793,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2788,7 +2809,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2798,11 +2819,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2814,14 +2835,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2831,14 +2852,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>91</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2847,14 +2868,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2887,7 +2908,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2897,11 +2918,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2920,7 +2941,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2937,7 +2958,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2953,7 +2974,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2963,14 +2984,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2979,20 +3000,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3000,10 +3021,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3012,14 +3033,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3029,11 +3050,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>41</v>
@@ -3045,14 +3066,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3062,14 +3083,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3078,28 +3099,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>41</v>
@@ -3111,14 +3132,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3128,14 +3149,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3144,14 +3165,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3161,14 +3182,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3177,14 +3198,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3194,14 +3215,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3210,7 +3231,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3227,11 +3248,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3243,14 +3264,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3267,7 +3288,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3276,14 +3297,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3300,7 +3321,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3326,14 +3347,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3342,14 +3363,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3359,14 +3380,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3382,7 +3403,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3399,7 +3420,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3415,7 +3436,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3425,11 +3446,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>61</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>41</v>
@@ -3441,14 +3462,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3458,14 +3479,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3474,14 +3495,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3491,14 +3512,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3507,14 +3528,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3524,11 +3545,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>41</v>
@@ -3540,14 +3561,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3557,11 +3578,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3573,14 +3594,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3590,14 +3611,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3606,14 +3627,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3623,14 +3644,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3639,14 +3660,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3656,11 +3677,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3672,7 +3693,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3689,11 +3710,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3705,14 +3726,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3722,11 +3743,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3738,14 +3759,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3755,14 +3776,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3771,14 +3792,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3788,14 +3809,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3804,31 +3825,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3837,31 +3858,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3870,28 +3891,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>41</v>
@@ -3903,28 +3924,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>41</v>
@@ -3936,28 +3957,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>41</v>
@@ -3969,31 +3990,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4002,31 +4023,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4035,28 +4056,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>41</v>
@@ -4068,7 +4089,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4081,18 +4102,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>251</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4101,31 +4122,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4134,28 +4155,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>41</v>
@@ -4174,24 +4195,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>41</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4200,31 +4221,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4233,31 +4254,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4266,31 +4287,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4299,31 +4320,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4332,31 +4353,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4365,31 +4386,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4405,59 +4426,158 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>38</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>172</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>41</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4388.1099999999997</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>271</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>48</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>169</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
         <v>272</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>273</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c t="s" r="Q97" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>274</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>275</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>169</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>276</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>277</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>278</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>169</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>178</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>4606.1099999999997</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>279</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>280</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>281</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4916,10 +5036,25 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -848,7 +848,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 6:33 PM</t>
+    <t>Sunday, 17 August, 2025 6:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -62,18 +62,36 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -155,9 +173,6 @@
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>83.00</t>
   </si>
   <si>
@@ -167,9 +182,6 @@
     <t>BRINGO TOPICAL LOTION 120ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -266,12 +278,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DEXATOBRIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -515,6 +521,12 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>PENCILONG VIAL</t>
   </si>
   <si>
@@ -719,6 +731,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -746,82 +767,88 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>40:0</t>
+    <t>39:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>2:7</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>11.5000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>مبرد اظافر</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن</t>
-  </si>
-  <si>
-    <t>2:7</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>11.5000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>شامبو جونسون 100 مل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>مبرد اظافر</t>
-  </si>
-  <si>
-    <t>مبرد قدم</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>معجون سنسوداين صغير</t>
@@ -848,7 +875,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 6:51 PM</t>
+    <t>Sunday, 17 August, 2025 6:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1572,7 +1599,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1581,14 +1608,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1598,11 +1625,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1614,14 +1641,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1631,14 +1658,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1647,14 +1674,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1664,11 +1691,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1680,14 +1707,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1697,14 +1724,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1713,14 +1740,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1730,11 +1757,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1746,14 +1773,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1763,14 +1790,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1779,14 +1806,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1803,7 +1830,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1829,14 +1856,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1845,14 +1872,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1862,14 +1889,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1878,14 +1905,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1895,14 +1922,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1911,14 +1938,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1928,11 +1955,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1944,14 +1971,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1961,14 +1988,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1977,14 +2004,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1994,14 +2021,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2010,14 +2037,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2027,14 +2054,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2043,14 +2070,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2060,14 +2087,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2076,14 +2103,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2093,14 +2120,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2109,14 +2136,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2126,11 +2153,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2142,14 +2169,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2159,14 +2186,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2175,14 +2202,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2192,11 +2219,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2208,14 +2235,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2225,14 +2252,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2241,14 +2268,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2258,14 +2285,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2274,14 +2301,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2291,14 +2318,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2307,14 +2334,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2324,14 +2351,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2340,14 +2367,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2357,14 +2384,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2373,14 +2400,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2390,14 +2417,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2406,14 +2433,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2423,14 +2450,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2439,14 +2466,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2456,14 +2483,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2472,14 +2499,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2489,14 +2516,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2505,14 +2532,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2522,14 +2549,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2538,14 +2565,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2555,14 +2582,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2571,14 +2598,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2588,14 +2615,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2604,14 +2631,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2621,14 +2648,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2637,14 +2664,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2654,14 +2681,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2670,14 +2697,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2687,14 +2714,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2703,14 +2730,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2720,14 +2747,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2736,14 +2763,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2753,14 +2780,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>138</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2769,14 +2796,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2786,14 +2813,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2802,14 +2829,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2819,14 +2846,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2835,14 +2862,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2852,14 +2879,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2868,14 +2895,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2885,11 +2912,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2901,14 +2928,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2918,14 +2945,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2934,14 +2961,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2951,14 +2978,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2967,14 +2994,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2984,11 +3011,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3000,14 +3027,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3017,14 +3044,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3033,14 +3060,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3050,14 +3077,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3066,14 +3093,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3083,14 +3110,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3099,31 +3126,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3132,14 +3159,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3149,14 +3176,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3165,14 +3192,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3182,11 +3209,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3198,31 +3225,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3231,14 +3258,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3248,14 +3275,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3264,14 +3291,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3281,14 +3308,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3297,14 +3324,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3314,14 +3341,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3330,14 +3357,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3347,11 +3374,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3363,14 +3390,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3380,14 +3407,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3396,14 +3423,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3413,14 +3440,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3429,14 +3456,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3446,14 +3473,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3462,14 +3489,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3479,14 +3506,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3495,14 +3522,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3512,14 +3539,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3528,14 +3555,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3545,14 +3572,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3561,14 +3588,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3578,14 +3605,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3594,14 +3621,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3611,14 +3638,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3627,14 +3654,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3644,14 +3671,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3660,14 +3687,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3677,11 +3704,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3693,14 +3720,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3710,14 +3737,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3726,14 +3753,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3743,14 +3770,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3759,14 +3786,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3776,11 +3803,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3792,7 +3819,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3809,11 +3836,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3825,14 +3852,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3842,11 +3869,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3858,14 +3885,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3875,14 +3902,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3891,14 +3918,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3908,14 +3935,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3924,31 +3951,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3957,31 +3984,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3990,31 +4017,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4023,31 +4050,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4063,24 +4090,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>110</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4089,31 +4116,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4122,31 +4149,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4155,31 +4182,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4188,31 +4215,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>258</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4221,31 +4248,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4254,31 +4281,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4287,31 +4314,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4320,31 +4347,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>48</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4353,31 +4380,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4386,31 +4413,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4426,24 +4453,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4459,24 +4486,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>48</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4485,31 +4512,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4518,66 +4545,231 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>178</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>4606.1099999999997</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>276</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>44</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>173</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>253</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>278</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>18</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>173</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>119</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>279</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
+      <c t="s" r="Q101" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>280</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>22</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>173</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
         <v>281</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>283</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>284</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>173</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>285</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>286</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>287</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>173</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>182</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>4904.4700000000003</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>288</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>289</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>290</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5051,10 +5243,35 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -278,6 +278,9 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t>DEXATOBRIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -446,9 +449,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>5:2</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -875,7 +875,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 6:53 PM</t>
+    <t>Sunday, 17 August, 2025 6:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2275,7 +2275,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2318,11 +2318,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>47</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2351,11 +2351,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>47</v>
@@ -2367,14 +2367,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2384,14 +2384,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2400,14 +2400,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2466,14 +2466,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2483,11 +2483,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>47</v>
@@ -2499,14 +2499,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>47</v>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2582,11 +2582,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2598,14 +2598,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2631,14 +2631,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2648,11 +2648,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>47</v>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2681,11 +2681,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>47</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2714,11 +2714,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2747,11 +2747,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>47</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2813,11 +2813,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2850,10 +2850,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2879,11 +2879,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>47</v>
@@ -2895,14 +2895,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3051,7 +3051,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3166,7 +3166,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3232,7 +3232,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3546,7 +3546,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3595,7 +3595,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4024,7 +4024,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4057,7 +4057,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>47</v>
@@ -4090,7 +4090,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4404,7 +4404,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -188,6 +188,18 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>-130.6800</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -803,7 +815,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>42.0000</t>
+    <t>42.6600</t>
   </si>
   <si>
     <t>21:0</t>
@@ -875,7 +887,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 6:59 PM</t>
+    <t>Sunday, 17 August, 2025 7:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1962,7 +1974,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1971,14 +1983,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1988,11 +2000,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2004,14 +2016,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2021,11 +2033,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2037,14 +2049,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2054,14 +2066,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2070,14 +2082,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2087,14 +2099,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2103,14 +2115,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2120,14 +2132,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2136,14 +2148,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2153,11 +2165,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2169,14 +2181,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2186,14 +2198,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2202,7 +2214,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2219,14 +2231,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2235,7 +2247,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2252,14 +2264,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2268,14 +2280,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2285,14 +2297,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2301,14 +2313,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2318,14 +2330,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2334,14 +2346,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2351,11 +2363,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>47</v>
@@ -2367,14 +2379,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2391,7 +2403,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>100</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2400,14 +2412,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2417,14 +2429,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>47</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2433,14 +2445,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2450,14 +2462,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2466,14 +2478,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2490,7 +2502,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2539,7 +2551,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2549,11 +2561,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>47</v>
@@ -2565,14 +2577,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2582,14 +2594,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2598,14 +2610,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2619,10 +2631,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2631,14 +2643,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2648,14 +2660,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2664,14 +2676,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2681,11 +2693,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>47</v>
@@ -2697,14 +2709,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2714,14 +2726,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2730,14 +2742,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2747,14 +2759,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2763,14 +2775,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2780,14 +2792,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2796,14 +2808,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2813,14 +2825,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2829,14 +2841,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2846,14 +2858,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2862,14 +2874,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2879,14 +2891,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>47</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2895,14 +2907,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2912,14 +2924,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2928,14 +2940,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2945,14 +2957,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2961,14 +2973,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2978,14 +2990,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2994,14 +3006,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3011,11 +3023,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3027,14 +3039,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3044,14 +3056,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3060,14 +3072,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3084,7 +3096,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3100,7 +3112,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3110,11 +3122,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3126,14 +3138,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3143,14 +3155,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3159,14 +3171,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3176,14 +3188,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3192,14 +3204,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3209,14 +3221,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3225,31 +3237,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3265,21 +3277,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>47</v>
@@ -3291,14 +3303,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3308,14 +3320,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3324,14 +3336,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3348,7 +3360,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3364,7 +3376,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3374,14 +3386,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3390,14 +3402,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3407,14 +3419,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3423,14 +3435,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3447,7 +3459,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3463,7 +3475,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3473,11 +3485,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3489,14 +3501,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3506,11 +3518,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3522,14 +3534,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3546,7 +3558,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3555,14 +3567,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3572,14 +3584,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>47</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3588,14 +3600,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3605,11 +3617,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>47</v>
@@ -3621,14 +3633,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3638,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3654,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3671,14 +3683,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3687,14 +3699,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3704,14 +3716,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3720,14 +3732,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3737,14 +3749,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3753,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3770,11 +3782,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>47</v>
@@ -3786,14 +3798,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,14 +3815,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3819,14 +3831,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3836,11 +3848,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3852,14 +3864,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3869,11 +3881,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3885,14 +3897,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3902,11 +3914,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3918,14 +3930,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,11 +3947,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3951,14 +3963,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3968,11 +3980,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3984,14 +3996,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4008,7 +4020,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4024,7 +4036,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4034,14 +4046,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4050,14 +4062,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4067,14 +4079,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>140</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4083,28 +4095,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>47</v>
@@ -4116,28 +4128,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>47</v>
@@ -4149,7 +4161,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4162,15 +4174,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>47</v>
@@ -4182,28 +4194,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>47</v>
@@ -4228,7 +4240,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4236,10 +4248,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4248,28 +4260,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>22</v>
@@ -4281,20 +4293,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4305,7 +4317,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4321,24 +4333,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4347,7 +4359,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4360,18 +4372,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>265</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4380,7 +4392,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4393,18 +4405,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>111</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4413,31 +4425,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>47</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4446,28 +4458,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>175</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>47</v>
@@ -4479,31 +4491,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4512,31 +4524,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4545,7 +4557,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4558,18 +4570,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4578,7 +4590,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4591,18 +4603,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4611,28 +4623,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>47</v>
@@ -4644,28 +4656,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>124</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>47</v>
@@ -4677,20 +4689,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4698,7 +4710,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>47</v>
@@ -4710,66 +4722,99 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>47</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>4904.4700000000003</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>288</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>289</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>290</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>291</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>177</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>186</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>4774.4499999999998</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>292</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>293</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>294</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5268,10 +5313,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -2881,7 +2881,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -245,9 +254,6 @@
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
-    <t>210.00</t>
-  </si>
-  <si>
     <t>69.3000</t>
   </si>
   <si>
@@ -314,447 +320,465 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:1</t>
+    <t>7:3</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>47.5200</t>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>HALONACE 5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>LAMICTAL 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>143.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LIT UP SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>31.5000</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>HALONACE 5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PENCILONG VIAL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>PRONTO PLUS 20 TAB.</t>
+  </si>
+  <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>52.4700</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>STRONGVILLE MEN HAIR SHAMPOO &amp; CONDITIONER 120 ML</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>TEBOFORTIN FORTE 80MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>54.4500</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>TRITACE 1.25MG 14 TAB</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>TRYPSALIN PLUS 30 TABS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8389:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
     <t>96.0000</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>LAMICTAL 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>143.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LIT UP SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>15.3600</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PAROFEN 30 OBLONG TAB.</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>PENCILONG VIAL</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>PRONTO PLUS 20 TAB.</t>
-  </si>
-  <si>
-    <t>PROTOFIX 40MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>PURGATON 20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>52.4700</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>SOFENACIN 10MG 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>STRONGVILLE MEN HAIR SHAMPOO &amp; CONDITIONER 120 ML</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>195.0000</t>
-  </si>
-  <si>
-    <t>TEBOFORTIN FORTE 80MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>54.4500</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>222.00</t>
-  </si>
-  <si>
-    <t>222.0000</t>
-  </si>
-  <si>
-    <t>TRENTAL 400 SR 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>TRITACE 1.25MG 14 TAB</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>TRYPSALIN PLUS 30 TABS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>57.7500</t>
-  </si>
-  <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8389:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -812,13 +836,16 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>42.6600</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>52.6600</t>
+  </si>
+  <si>
+    <t>26:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -845,6 +872,12 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t xml:space="preserve">كحول ايثيلي 120 مل </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>مبرد اظافر</t>
   </si>
   <si>
@@ -854,9 +887,6 @@
     <t>مبرد قدم</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -887,7 +917,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 7:05 PM</t>
+    <t>Sunday, 17 August, 2025 7:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1858,7 +1888,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1868,11 +1898,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1884,14 +1914,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1901,14 +1931,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1924,7 +1954,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1957,7 +1987,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1974,7 +2004,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1983,14 +2013,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2000,14 +2030,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2023,7 +2053,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2033,11 +2063,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2049,14 +2079,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2066,11 +2096,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2089,7 +2119,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2106,7 +2136,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2122,7 +2152,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2139,7 +2169,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2155,7 +2185,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2172,7 +2202,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2188,7 +2218,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2198,11 +2228,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2214,14 +2244,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2231,14 +2261,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2247,7 +2277,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2264,14 +2294,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2280,7 +2310,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2297,14 +2327,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2313,14 +2343,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2330,14 +2360,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2353,7 +2383,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2363,14 +2393,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2379,14 +2409,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2396,11 +2426,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>47</v>
@@ -2412,14 +2442,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2429,14 +2459,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2445,14 +2475,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2462,14 +2492,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2478,14 +2508,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2495,14 +2525,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2511,14 +2541,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2528,14 +2558,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2544,14 +2574,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2561,11 +2591,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>47</v>
@@ -2577,14 +2607,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2594,14 +2624,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>47</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2610,14 +2640,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2627,14 +2657,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2643,14 +2673,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2660,14 +2690,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2676,14 +2706,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2693,14 +2723,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2709,14 +2739,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2726,14 +2756,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2742,14 +2772,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2759,11 +2789,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2775,14 +2805,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2792,14 +2822,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2808,14 +2838,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2825,11 +2855,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>47</v>
@@ -2841,14 +2871,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2858,11 +2888,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2874,14 +2904,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2891,14 +2921,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>145</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2907,14 +2937,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2924,11 +2954,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>47</v>
@@ -2940,14 +2970,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2957,11 +2987,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2973,14 +3003,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2990,14 +3020,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>47</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3006,14 +3036,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3023,14 +3053,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3039,14 +3069,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3056,11 +3086,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3072,14 +3102,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3089,14 +3119,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3105,14 +3135,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3122,11 +3152,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3138,14 +3168,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3155,11 +3185,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3171,14 +3201,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3188,14 +3218,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3204,14 +3234,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3221,14 +3251,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3237,14 +3267,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3254,11 +3284,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3270,28 +3300,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>47</v>
@@ -3303,14 +3333,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3320,14 +3350,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3343,7 +3373,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3353,11 +3383,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3369,28 +3399,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>47</v>
@@ -3402,14 +3432,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3419,14 +3449,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3435,14 +3465,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3452,14 +3482,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3468,14 +3498,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3485,14 +3515,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3501,7 +3531,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3518,11 +3548,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3534,14 +3564,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3558,7 +3588,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3567,14 +3597,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3591,7 +3621,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3617,14 +3647,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3633,14 +3663,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,14 +3680,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3673,7 +3703,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3690,7 +3720,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3706,7 +3736,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,11 +3746,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>72</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>47</v>
@@ -3732,14 +3762,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3749,14 +3779,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3765,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,14 +3812,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3798,14 +3828,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,11 +3845,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>47</v>
@@ -3831,14 +3861,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3848,11 +3878,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3864,14 +3894,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3881,14 +3911,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,14 +3927,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,14 +3944,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3930,14 +3960,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,11 +3977,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3963,7 +3993,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3980,11 +4010,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3996,14 +4026,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,11 +4043,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4029,14 +4059,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>55</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,14 +4076,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4062,14 +4092,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,14 +4109,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4095,14 +4125,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4112,14 +4142,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4128,31 +4158,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4161,31 +4191,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4194,28 +4224,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>47</v>
@@ -4227,28 +4257,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>47</v>
@@ -4260,31 +4290,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4300,24 +4330,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,31 +4356,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,31 +4389,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4392,7 +4422,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4405,18 +4435,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>269</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,31 +4455,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4458,31 +4488,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4491,31 +4521,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>47</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4524,31 +4554,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4557,31 +4587,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4590,31 +4620,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4623,31 +4653,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4656,31 +4686,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4689,28 +4719,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>47</v>
@@ -4722,31 +4752,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4755,66 +4785,198 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>47</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>4774.4499999999998</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>292</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>18</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>184</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>127</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>293</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c t="s" r="Q106" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>294</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>22</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>184</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>295</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>297</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>298</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>184</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>299</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>300</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>301</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>184</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>193</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5263.29</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>302</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>303</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>304</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5318,10 +5480,30 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -512,9 +521,6 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>33.0000</t>
-  </si>
-  <si>
     <t>0:3</t>
   </si>
   <si>
@@ -530,6 +536,15 @@
     <t>15.3600</t>
   </si>
   <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -626,6 +641,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
@@ -791,9 +815,6 @@
     <t>جنتيانا نقط</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>7.00</t>
   </si>
   <si>
@@ -869,6 +890,12 @@
     <t>25:0</t>
   </si>
   <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -917,7 +944,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 7:06 PM</t>
+    <t>Sunday, 17 August, 2025 7:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2284,7 +2311,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2294,7 +2321,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2334,7 +2361,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2367,7 +2394,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2383,7 +2410,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2393,14 +2420,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2409,14 +2436,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2426,14 +2453,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2449,7 +2476,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2482,7 +2509,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2492,14 +2519,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2508,14 +2535,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2525,14 +2552,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2541,14 +2568,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2558,14 +2585,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2581,7 +2608,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2591,14 +2618,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2607,14 +2634,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2624,14 +2651,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>107</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2640,14 +2667,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2657,14 +2684,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>47</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2673,14 +2700,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2690,11 +2717,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>47</v>
@@ -2706,14 +2733,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2723,14 +2750,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2746,7 +2773,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2756,14 +2783,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2779,7 +2806,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2789,14 +2816,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2812,7 +2839,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2829,7 +2856,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2845,7 +2872,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2878,7 +2905,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2895,7 +2922,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2911,7 +2938,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2928,7 +2955,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2944,7 +2971,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2961,7 +2988,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2977,7 +3004,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2994,7 +3021,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3020,14 +3047,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3053,14 +3080,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>154</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>47</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3076,7 +3103,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3086,14 +3113,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3102,14 +3129,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3119,14 +3146,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3142,7 +3169,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3159,7 +3186,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3175,7 +3202,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3185,11 +3212,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3201,14 +3228,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3218,14 +3245,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3234,14 +3261,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3251,14 +3278,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3267,14 +3294,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3284,11 +3311,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3340,7 +3367,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3354,10 +3381,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3366,14 +3393,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3383,14 +3410,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3406,24 +3433,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3432,14 +3459,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3449,14 +3476,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3472,24 +3499,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3498,14 +3525,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3515,11 +3542,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>47</v>
@@ -3531,14 +3558,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3548,11 +3575,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3564,14 +3591,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3581,11 +3608,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>47</v>
@@ -3597,14 +3624,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3614,11 +3641,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3630,14 +3657,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3647,14 +3674,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3663,14 +3690,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3680,11 +3707,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3696,14 +3723,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3713,14 +3740,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>168</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3729,7 +3756,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3746,14 +3773,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3762,14 +3789,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3779,14 +3806,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3795,14 +3822,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3812,14 +3839,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3828,14 +3855,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3845,7 +3872,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3868,7 +3895,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3882,10 +3909,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3894,14 +3921,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3911,14 +3938,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3927,14 +3954,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,11 +3971,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>47</v>
@@ -3960,14 +3987,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,11 +4004,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4000,7 +4027,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4017,7 +4044,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4033,7 +4060,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4050,7 +4077,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4066,7 +4093,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4080,7 +4107,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4092,7 +4119,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4109,7 +4136,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4132,7 +4159,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4165,7 +4192,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>55</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,14 +4202,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4191,14 +4218,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4208,14 +4235,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4224,14 +4251,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4241,14 +4268,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4257,31 +4284,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>118</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4290,31 +4317,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4323,28 +4350,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>47</v>
@@ -4356,28 +4383,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>47</v>
@@ -4389,31 +4416,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4429,24 +4456,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4455,31 +4482,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>86</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4488,31 +4515,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4521,7 +4548,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4534,18 +4561,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>278</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4554,31 +4581,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4587,31 +4614,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4627,24 +4654,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>47</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4653,31 +4680,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,31 +4713,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4719,28 +4746,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>47</v>
@@ -4752,28 +4779,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -4785,28 +4812,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>47</v>
@@ -4818,31 +4845,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4851,28 +4878,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>47</v>
@@ -4884,31 +4911,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4924,59 +4951,191 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>47</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5263.29</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>301</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>18</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>189</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>130</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>302</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c t="s" r="Q110" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>303</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>22</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>189</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
         <v>304</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>306</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>307</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>189</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>308</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>309</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>310</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>189</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>198</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5393.29</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>311</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>312</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>313</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5500,10 +5659,30 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -917,6 +917,9 @@
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>23:0</t>
+  </si>
+  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -944,7 +947,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 7:09 PM</t>
+    <t>Sunday, 17 August, 2025 7:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4984,7 +4987,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4998,7 +5001,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>47</v>
@@ -5010,7 +5013,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5027,11 +5030,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>47</v>
@@ -5043,14 +5046,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5060,7 +5063,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5076,14 +5079,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,7 +5114,7 @@
     </row>
     <row r="115" ht="16.5" customHeight="1">
       <c t="s" r="A115" s="14">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -5119,13 +5122,13 @@
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
       <c t="s" r="G115" s="15">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
       <c r="J115" s="16"/>
       <c t="s" r="K115" s="17">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L115" s="17"/>
       <c r="M115" s="17"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -641,6 +641,9 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -947,7 +950,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 7:11 PM</t>
+    <t>Sunday, 17 August, 2025 7:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3733,7 +3736,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3743,14 +3746,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3759,14 +3762,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3776,14 +3779,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3792,14 +3795,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3809,11 +3812,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3832,7 +3835,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3842,14 +3845,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3858,14 +3861,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3875,14 +3878,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3891,14 +3894,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3908,11 +3911,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>47</v>
@@ -3924,14 +3927,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3941,14 +3944,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3957,14 +3960,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3974,14 +3977,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3990,14 +3993,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4007,14 +4010,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4023,14 +4026,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4040,14 +4043,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4056,14 +4059,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4073,11 +4076,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>47</v>
@@ -4089,14 +4092,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4106,14 +4109,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4122,14 +4125,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4139,11 +4142,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4155,14 +4158,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4172,11 +4175,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4188,14 +4191,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4205,11 +4208,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4221,14 +4224,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4238,11 +4241,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4254,14 +4257,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4271,11 +4274,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4287,14 +4290,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,14 +4307,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4320,14 +4323,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4337,14 +4340,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4353,7 +4356,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4370,14 +4373,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4386,7 +4389,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4399,15 +4402,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>47</v>
@@ -4426,7 +4429,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4492,7 +4495,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,11 +4505,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>47</v>
@@ -4518,14 +4521,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>86</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,14 +4538,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4551,14 +4554,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4568,11 +4571,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4584,14 +4587,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4601,14 +4604,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4617,14 +4620,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4634,14 +4637,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4650,7 +4653,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4667,14 +4670,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>285</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4683,7 +4686,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4700,14 +4703,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>121</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4716,14 +4719,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4733,14 +4736,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4749,14 +4752,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4766,11 +4769,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>47</v>
@@ -4789,7 +4792,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4799,14 +4802,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4815,14 +4818,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4832,14 +4835,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4848,14 +4851,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4865,14 +4868,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4888,7 +4891,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4898,14 +4901,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4914,14 +4917,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4931,14 +4934,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4947,7 +4950,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4964,14 +4967,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4987,7 +4990,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4997,11 +5000,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>130</v>
+        <v>273</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>47</v>
@@ -5013,14 +5016,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5030,11 +5033,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>130</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>47</v>
@@ -5046,14 +5049,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5063,11 +5066,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>47</v>
@@ -5079,14 +5082,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5096,49 +5099,82 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>311</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>312</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>189</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>198</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>199</v>
       </c>
-      <c t="s" r="Q113" s="12">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5393.29</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>312</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c t="s" r="Q114" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5438.29</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
         <v>313</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
         <v>314</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>315</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5682,10 +5718,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -950,7 +950,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 7:12 PM</t>
+    <t>Sunday, 17 August, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -404,6 +404,9 @@
     <t>24.00</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
@@ -587,6 +590,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>PRONTO PLUS 20 TAB.</t>
   </si>
   <si>
@@ -713,6 +725,15 @@
     <t>54.4500</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -812,6 +833,15 @@
     <t xml:space="preserve">بيبرونه ALGO صغيره </t>
   </si>
   <si>
+    <t>بيبي جوي رقم 4</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>320.0000</t>
+  </si>
+  <si>
     <t>جل صبار برطمان</t>
   </si>
   <si>
@@ -906,6 +936,15 @@
   </si>
   <si>
     <t>11:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم للبشره العاديه </t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
   </si>
   <si>
     <t>مبرد اظافر</t>
@@ -2845,7 +2884,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2855,14 +2894,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2871,14 +2910,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2888,14 +2927,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2904,14 +2943,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2921,11 +2960,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>47</v>
@@ -2937,14 +2976,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2954,14 +2993,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2970,14 +3009,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2987,14 +3026,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3003,14 +3042,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3020,14 +3059,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3036,14 +3075,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3053,14 +3092,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3069,7 +3108,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3086,14 +3125,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3102,7 +3141,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3119,14 +3158,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>47</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3135,14 +3174,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3152,14 +3191,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3168,14 +3207,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3185,14 +3224,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3201,14 +3240,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3218,14 +3257,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3234,14 +3273,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3251,11 +3290,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3267,14 +3306,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3284,14 +3323,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3300,14 +3339,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3317,14 +3356,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3333,14 +3372,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3350,14 +3389,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3366,14 +3405,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3383,14 +3422,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3399,14 +3438,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3416,14 +3455,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3432,14 +3471,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3449,14 +3488,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3465,14 +3504,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3482,14 +3521,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3498,31 +3537,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3531,28 +3570,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>47</v>
@@ -3571,13 +3610,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3588,7 +3627,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3604,7 +3643,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3614,11 +3653,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>47</v>
@@ -3630,14 +3669,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3647,11 +3686,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3663,14 +3702,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3680,11 +3719,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>47</v>
@@ -3696,14 +3735,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3713,11 +3752,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3729,14 +3768,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3746,11 +3785,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>47</v>
@@ -3762,14 +3801,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3786,7 +3825,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3812,14 +3851,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3828,14 +3867,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3845,14 +3884,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3868,7 +3907,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3885,7 +3924,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3901,7 +3940,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3911,14 +3950,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3927,14 +3966,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3944,14 +3983,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>47</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3977,14 +4016,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3993,14 +4032,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4010,11 +4049,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>47</v>
@@ -4026,14 +4065,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4043,14 +4082,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4059,14 +4098,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4076,11 +4115,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>47</v>
@@ -4092,14 +4131,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4109,14 +4148,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4125,14 +4164,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4142,14 +4181,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4158,14 +4197,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4175,14 +4214,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4191,14 +4230,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4208,14 +4247,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4224,14 +4263,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4241,11 +4280,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4257,7 +4296,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4274,11 +4313,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4290,14 +4329,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4307,11 +4346,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4323,14 +4362,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>55</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4340,14 +4379,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4356,14 +4395,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4373,14 +4412,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>19</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4389,14 +4428,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4406,14 +4445,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4422,31 +4461,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4455,31 +4494,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4488,28 +4527,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>47</v>
@@ -4521,28 +4560,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>47</v>
@@ -4554,31 +4593,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4600,7 +4639,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4611,7 +4650,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4627,24 +4666,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4653,31 +4692,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>121</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4686,31 +4725,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>286</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4719,7 +4758,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4732,18 +4771,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4752,31 +4791,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>47</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4792,24 +4831,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>190</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4818,31 +4857,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4851,31 +4890,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4884,31 +4923,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4917,28 +4956,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>47</v>
@@ -4950,28 +4989,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>22</v>
@@ -4983,28 +5022,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>47</v>
@@ -5016,31 +5055,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5049,28 +5088,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>47</v>
@@ -5082,20 +5121,20 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5103,7 +5142,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>47</v>
@@ -5115,66 +5154,231 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>199</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5438.29</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>313</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>314</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>44</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>190</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>283</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>315</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>316</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>190</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>130</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>318</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>22</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>190</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>319</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>321</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>322</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>190</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>323</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>324</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>325</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>190</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>202</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>5896.29</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>326</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>327</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>328</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5723,10 +5927,35 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -602,6 +602,15 @@
     <t>PRONTO PLUS 20 TAB.</t>
   </si>
   <si>
+    <t>PROTACI SACHET</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>PROTOFIX 40MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -752,6 +761,15 @@
     <t>222.0000</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>TRENTAL 400 SR 20 F.C. TAB</t>
   </si>
   <si>
@@ -819,6 +837,12 @@
   </si>
   <si>
     <t>168.0000</t>
+  </si>
+  <si>
+    <t>ZINC OLIVE BABY CREAM 75 GM</t>
+  </si>
+  <si>
+    <t>69.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -3676,13 +3700,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3693,7 +3717,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3709,7 +3733,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3719,14 +3743,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3735,14 +3759,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3759,7 +3783,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3775,7 +3799,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3792,7 +3816,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3808,7 +3832,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3818,14 +3842,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3834,14 +3858,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3851,14 +3875,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3867,14 +3891,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3884,14 +3908,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3907,7 +3931,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3924,7 +3948,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3940,7 +3964,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3950,11 +3974,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3966,14 +3990,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3983,14 +4007,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4006,7 +4030,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4016,14 +4040,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>47</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4032,14 +4056,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4049,11 +4073,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>47</v>
@@ -4065,14 +4089,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4082,14 +4106,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4105,7 +4129,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4122,7 +4146,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4138,7 +4162,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4155,7 +4179,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4171,7 +4195,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4188,7 +4212,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4204,7 +4228,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4237,7 +4261,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4270,7 +4294,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4284,10 +4308,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>104</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4296,14 +4320,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4313,14 +4337,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4329,14 +4353,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4346,11 +4370,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4369,7 +4393,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4402,7 +4426,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4412,11 +4436,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4428,14 +4452,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4445,11 +4469,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4461,14 +4485,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4478,14 +4502,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4494,14 +4518,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4511,14 +4535,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4527,14 +4551,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>121</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4544,14 +4568,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4560,7 +4584,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4573,18 +4597,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4593,28 +4617,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>47</v>
@@ -4626,28 +4650,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>174</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>47</v>
@@ -4659,14 +4683,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4692,14 +4716,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4709,11 +4733,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>47</v>
@@ -4725,14 +4749,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4746,10 +4770,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4758,14 +4782,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4775,14 +4799,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4791,14 +4815,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>86</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4808,14 +4832,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4824,14 +4848,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4841,14 +4865,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4857,7 +4881,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4874,14 +4898,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>296</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4890,14 +4914,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4907,14 +4931,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4930,7 +4954,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4944,10 +4968,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4956,14 +4980,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4973,14 +4997,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>192</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>47</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4989,14 +5013,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5006,14 +5030,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5022,14 +5046,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>305</v>
+        <v>47</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5039,11 +5063,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>47</v>
@@ -5055,14 +5079,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5072,14 +5096,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5088,14 +5112,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5105,14 +5129,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5121,14 +5145,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5138,11 +5162,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>47</v>
@@ -5154,7 +5178,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5171,14 +5195,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5187,14 +5211,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5204,11 +5228,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>47</v>
@@ -5220,14 +5244,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5237,11 +5261,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>130</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>47</v>
@@ -5253,14 +5277,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5270,14 +5294,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5286,14 +5310,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>44</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5303,11 +5327,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>47</v>
@@ -5319,14 +5343,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5336,49 +5360,148 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>47</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>5896.29</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>326</v>
       </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>22</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>190</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
         <v>327</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>328</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c t="s" r="Q120" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>329</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>330</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>190</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>331</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>332</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>333</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>190</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>205</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6138.29</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>334</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>335</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>336</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5952,10 +6075,25 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -242,6 +242,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>COLLOMAK TOP. SOUTION 10 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -737,12 +746,6 @@
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -947,6 +950,15 @@
     <t>25:0</t>
   </si>
   <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -974,9 +986,6 @@
     <t>مبرد اظافر</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
@@ -1013,7 +1022,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 7:16 PM</t>
+    <t>Sunday, 17 August, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2281,7 +2290,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2298,7 +2307,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2314,7 +2323,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2324,14 +2333,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2340,14 +2349,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2357,7 +2366,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2380,7 +2389,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2390,14 +2399,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2413,7 +2422,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2423,7 +2432,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2463,7 +2472,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2496,7 +2505,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2512,7 +2521,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2522,14 +2531,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2538,14 +2547,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2555,14 +2564,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2578,7 +2587,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2611,7 +2620,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2621,14 +2630,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2637,14 +2646,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2654,14 +2663,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2670,14 +2679,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2687,14 +2696,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2710,7 +2719,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2720,14 +2729,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2736,14 +2745,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2753,14 +2762,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>110</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2769,14 +2778,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2786,14 +2795,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>47</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2819,11 +2828,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>47</v>
@@ -2835,14 +2844,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2852,14 +2861,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2875,7 +2884,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2885,14 +2894,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2908,7 +2917,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2918,14 +2927,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2934,14 +2943,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2951,14 +2960,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2974,7 +2983,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2991,7 +3000,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3007,7 +3016,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3040,7 +3049,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3057,7 +3066,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3073,7 +3082,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3090,7 +3099,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3106,7 +3115,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3123,7 +3132,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3139,7 +3148,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3156,7 +3165,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3215,14 +3224,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>158</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>47</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3238,7 +3247,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3264,14 +3273,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3281,14 +3290,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3304,7 +3313,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3321,7 +3330,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3337,7 +3346,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3347,11 +3356,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3363,14 +3372,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3380,14 +3389,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3403,7 +3412,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3413,14 +3422,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3453,7 +3462,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3469,7 +3478,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3483,10 +3492,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3495,14 +3504,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3512,14 +3521,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3535,7 +3544,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3552,7 +3561,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3568,7 +3577,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3578,14 +3587,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3594,31 +3603,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3627,20 +3636,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3667,21 +3676,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>47</v>
@@ -3693,7 +3702,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3706,15 +3715,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>47</v>
@@ -3733,13 +3742,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3750,7 +3759,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3766,7 +3775,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3776,14 +3785,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3792,14 +3801,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3816,7 +3825,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3832,7 +3841,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3849,7 +3858,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3865,7 +3874,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3875,14 +3884,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3908,14 +3917,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3924,14 +3933,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3941,14 +3950,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3964,7 +3973,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3981,7 +3990,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3997,7 +4006,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4007,11 +4016,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4023,14 +4032,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4040,14 +4049,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4063,7 +4072,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4073,14 +4082,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>72</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>47</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4089,14 +4098,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4106,11 +4115,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>47</v>
@@ -4122,14 +4131,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4162,7 +4171,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4179,7 +4188,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4195,7 +4204,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4212,7 +4221,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4228,7 +4237,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4245,7 +4254,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4261,7 +4270,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4271,11 +4280,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>47</v>
@@ -4287,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,11 +4313,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>47</v>
@@ -4320,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4337,11 +4346,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>47</v>
@@ -4353,7 +4362,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4370,14 +4379,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4386,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,11 +4412,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4419,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,11 +4445,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4452,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,11 +4478,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4485,14 +4494,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4502,11 +4511,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4518,14 +4527,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,11 +4544,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4551,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4584,14 +4593,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4601,14 +4610,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4617,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4634,14 +4643,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4650,14 +4659,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4667,11 +4676,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>47</v>
@@ -4683,28 +4692,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>192</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>47</v>
@@ -4723,21 +4732,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>47</v>
@@ -4756,21 +4765,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>47</v>
@@ -4782,28 +4791,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>47</v>
@@ -4822,21 +4831,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>194</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>47</v>
@@ -4848,31 +4857,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>89</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4881,28 +4890,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4914,31 +4923,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4947,31 +4956,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4980,7 +4989,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4993,18 +5002,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>304</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5013,7 +5022,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5026,18 +5035,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>121</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5046,31 +5055,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>47</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5079,28 +5088,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>191</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>192</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>47</v>
@@ -5119,24 +5128,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>291</v>
+        <v>194</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5145,31 +5154,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5178,28 +5187,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>206</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5211,28 +5220,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>191</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>192</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>47</v>
@@ -5244,31 +5253,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5277,31 +5286,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5310,28 +5319,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>47</v>
@@ -5343,31 +5352,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5376,28 +5385,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>47</v>
@@ -5409,28 +5418,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>133</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>47</v>
@@ -5442,66 +5451,132 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>205</v>
+        <v>330</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>206</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>47</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6138.29</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>332</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>333</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>193</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
         <v>334</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>335</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
         <v>336</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>193</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>208</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6196.29</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>337</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>338</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>339</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6090,10 +6165,20 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -956,34 +956,37 @@
     <t>10.00</t>
   </si>
   <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كحول ايثيلي 120 مل </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم للبشره العاديه </t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>مبرد اظافر</t>
+  </si>
+  <si>
     <t>30.0000</t>
-  </si>
-  <si>
-    <t>فرشاة اطفال ريتش ديلي</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t xml:space="preserve">كحول ايثيلي 120 مل </t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كريم للبشره العاديه </t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>مبرد اظافر</t>
   </si>
   <si>
     <t>مبرد قدم</t>
@@ -5194,7 +5197,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5211,7 +5214,7 @@
         <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5373,7 +5376,7 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>22</v>
@@ -5385,7 +5388,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5418,14 +5421,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5439,7 +5442,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>47</v>
@@ -5451,7 +5454,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5468,11 +5471,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>47</v>
@@ -5484,14 +5487,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5501,7 +5504,7 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
@@ -5517,14 +5520,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5546,13 +5549,13 @@
     </row>
     <row r="125" ht="24.75" customHeight="1">
       <c r="P125" s="13">
-        <v>6196.29</v>
+        <v>6176.29</v>
       </c>
       <c r="Q125" s="13"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
       <c t="s" r="A126" s="14">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -5560,13 +5563,13 @@
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c t="s" r="G126" s="15">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="16"/>
       <c t="s" r="K126" s="17">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L126" s="17"/>
       <c r="M126" s="17"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>75.00</t>
   </si>
   <si>
-    <t>75.0000</t>
+    <t>150.0000</t>
   </si>
   <si>
     <t>KETOLAC 10MG 20 TAB</t>
@@ -617,9 +617,6 @@
     <t>150.00</t>
   </si>
   <si>
-    <t>150.0000</t>
-  </si>
-  <si>
     <t>PROTOFIX 40MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -704,6 +701,18 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
@@ -773,6 +782,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>TRENTAL 400 SR 20 F.C. TAB</t>
   </si>
   <si>
@@ -965,6 +983,15 @@
     <t>29:0</t>
   </si>
   <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -986,9 +1013,6 @@
     <t>مبرد اظافر</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
@@ -1008,6 +1032,9 @@
   </si>
   <si>
     <t>35.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
@@ -3151,7 +3178,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3168,7 +3195,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3759,7 +3786,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>47</v>
@@ -3771,7 +3798,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3788,11 +3815,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3804,14 +3831,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3821,11 +3848,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>47</v>
@@ -3837,7 +3864,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3854,11 +3881,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3870,7 +3897,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3887,11 +3914,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>47</v>
@@ -3903,14 +3930,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3920,11 +3947,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3936,7 +3963,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3953,11 +3980,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>47</v>
@@ -3969,7 +3996,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3986,11 +4013,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>31</v>
@@ -4002,7 +4029,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4019,11 +4046,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4035,7 +4062,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4052,11 +4079,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4068,7 +4095,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4085,11 +4112,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>174</v>
@@ -4101,14 +4128,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4118,11 +4145,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>47</v>
@@ -4134,14 +4161,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4151,11 +4178,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>47</v>
@@ -4167,14 +4194,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4184,14 +4211,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4207,7 +4234,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4224,7 +4251,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4240,7 +4267,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4257,7 +4284,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4273,7 +4300,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4283,14 +4310,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4299,14 +4326,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4316,11 +4343,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>47</v>
@@ -4339,7 +4366,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4372,7 +4399,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4419,10 +4446,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4431,14 +4458,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4448,14 +4475,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4464,14 +4491,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4481,11 +4508,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4504,7 +4531,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4537,7 +4564,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4547,11 +4574,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4563,14 +4590,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4580,11 +4607,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4596,14 +4623,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4613,14 +4640,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4629,14 +4656,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4646,14 +4673,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4662,14 +4689,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4679,14 +4706,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4695,7 +4722,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4712,14 +4739,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>177</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4728,28 +4755,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>193</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>47</v>
@@ -4761,28 +4788,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>193</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>195</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>47</v>
@@ -4794,14 +4821,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4811,11 +4838,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>194</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>47</v>
@@ -4827,7 +4854,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4860,14 +4887,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4877,11 +4904,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>47</v>
@@ -4893,14 +4920,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4910,14 +4937,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4933,7 +4960,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4950,7 +4977,7 @@
         <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4980,10 +5007,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4992,7 +5019,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5009,14 +5036,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>124</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5025,14 +5052,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5042,14 +5069,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>305</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5075,11 +5102,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>124</v>
@@ -5091,14 +5118,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5108,14 +5135,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>47</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5124,14 +5151,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5141,14 +5168,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>194</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>195</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>47</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5157,14 +5184,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5174,14 +5201,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5190,14 +5217,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5207,11 +5234,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>194</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>47</v>
@@ -5223,14 +5250,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5240,14 +5267,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5256,14 +5283,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5273,14 +5300,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5289,14 +5316,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5306,11 +5333,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>195</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>47</v>
@@ -5322,14 +5349,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5339,11 +5366,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>47</v>
@@ -5355,7 +5382,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5372,14 +5399,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>325</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5388,14 +5415,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5405,11 +5432,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>302</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>47</v>
@@ -5421,14 +5448,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>328</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5438,11 +5465,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>47</v>
@@ -5454,14 +5481,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5471,14 +5498,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5487,14 +5514,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5504,11 +5531,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>47</v>
@@ -5520,14 +5547,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5537,49 +5564,181 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>209</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>47</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6176.29</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>338</v>
       </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>22</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>193</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
         <v>339</v>
       </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
         <v>340</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c t="s" r="Q125" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>341</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>329</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>193</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>298</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>342</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>343</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>193</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>344</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>345</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>346</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>193</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>207</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6384.29</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>347</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>348</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>349</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6178,10 +6337,30 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -452,6 +452,18 @@
     <t>55.4400</t>
   </si>
   <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -506,12 +518,6 @@
     <t>LIT UP SOAP 100 GM</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
@@ -590,9 +596,6 @@
     <t>PENCILONG VIAL</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -671,6 +674,15 @@
     <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
   </si>
   <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -1052,7 +1064,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 7:17 PM</t>
+    <t>Sunday, 17 August, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3151,18 +3163,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3171,14 +3183,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3188,11 +3200,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -3204,7 +3216,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3221,14 +3233,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3237,7 +3249,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3254,14 +3266,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3270,7 +3282,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>47</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3303,14 +3315,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3336,14 +3348,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3353,14 +3365,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3369,14 +3381,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3386,14 +3398,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3419,7 +3431,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3442,7 +3454,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3452,14 +3464,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3468,14 +3480,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3485,14 +3497,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3501,14 +3513,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3518,14 +3530,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3534,14 +3546,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3551,14 +3563,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3574,7 +3586,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3588,10 +3600,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3600,14 +3612,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3617,14 +3629,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3633,14 +3645,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3650,14 +3662,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3673,24 +3685,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>193</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3699,28 +3711,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>47</v>
@@ -3732,28 +3744,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>47</v>
@@ -3778,15 +3790,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>193</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>47</v>
@@ -3798,31 +3810,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3831,14 +3843,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3848,14 +3860,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3864,14 +3876,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3881,14 +3893,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3897,14 +3909,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3914,14 +3926,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3930,14 +3942,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3947,14 +3959,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3963,14 +3975,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3980,14 +3992,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4003,7 +4015,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4013,14 +4025,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4029,7 +4041,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4046,14 +4058,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4062,14 +4074,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4079,14 +4091,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4102,7 +4114,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4119,7 +4131,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4135,7 +4147,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4145,14 +4157,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4161,14 +4173,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4178,14 +4190,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>47</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4194,14 +4206,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4211,11 +4223,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>47</v>
@@ -4244,14 +4256,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4260,14 +4272,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4277,11 +4289,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>47</v>
@@ -4293,14 +4305,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4310,14 +4322,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4326,14 +4338,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4343,11 +4355,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>47</v>
@@ -4366,7 +4378,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4383,7 +4395,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4399,7 +4411,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4409,11 +4421,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>47</v>
@@ -4425,14 +4437,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4442,11 +4454,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>47</v>
@@ -4458,14 +4470,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4475,11 +4487,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>47</v>
@@ -4491,7 +4503,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4508,14 +4520,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4524,14 +4536,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4541,14 +4553,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4557,14 +4569,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4574,11 +4586,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4590,14 +4602,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4607,11 +4619,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4623,14 +4635,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4640,11 +4652,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4656,14 +4668,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4673,11 +4685,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4689,14 +4701,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4706,14 +4718,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4722,14 +4734,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4739,14 +4751,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4755,14 +4767,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>89</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4772,14 +4784,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4788,7 +4800,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4805,14 +4817,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4828,21 +4840,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>193</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>47</v>
@@ -4854,28 +4866,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>193</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>47</v>
@@ -4887,28 +4899,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>47</v>
@@ -4933,15 +4945,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>47</v>
@@ -4960,13 +4972,13 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4993,24 +5005,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>195</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5019,31 +5031,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5052,31 +5064,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5085,7 +5097,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5098,18 +5110,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>124</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5118,31 +5130,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>311</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5151,7 +5163,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5164,15 +5176,15 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>124</v>
@@ -5184,31 +5196,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>47</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5224,24 +5236,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>194</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>47</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5250,31 +5262,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>318</v>
+        <v>47</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5283,28 +5295,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>195</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>321</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>47</v>
@@ -5316,31 +5328,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5349,28 +5361,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>47</v>
@@ -5382,31 +5394,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>208</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5422,21 +5434,21 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>329</v>
+        <v>235</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>194</v>
+        <v>329</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>47</v>
@@ -5448,31 +5460,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5481,31 +5493,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5521,21 +5533,21 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>47</v>
@@ -5547,31 +5559,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5587,21 +5599,21 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>47</v>
@@ -5613,28 +5625,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>298</v>
+        <v>133</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>47</v>
@@ -5653,21 +5665,21 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>343</v>
+        <v>22</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>47</v>
@@ -5686,59 +5698,125 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>346</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>347</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>148</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>348</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>349</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>350</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>148</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
         <v>208</v>
       </c>
-      <c t="s" r="Q128" s="12">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>6384.29</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>347</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>348</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
-        <v>349</v>
-      </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>6544.29</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>351</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>352</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>353</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6357,10 +6435,20 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -1064,7 +1064,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 7:18 PM</t>
+    <t>Sunday, 17 August, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -500,6 +500,15 @@
     <t>2:3</t>
   </si>
   <si>
+    <t xml:space="preserve">LACTASE 750MG  DROPS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>LAMICTAL 50MG 30 TAB.</t>
   </si>
   <si>
@@ -584,159 +593,162 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PENCILONG VIAL</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>PRONTO PLUS 20 TAB.</t>
+  </si>
+  <si>
+    <t>PROTACI SACHET</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>52.4700</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>46.0000</t>
   </si>
   <si>
-    <t>PAROFEN 30 OBLONG TAB.</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>PENCILONG VIAL</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>PRONTO PLUS 20 TAB.</t>
-  </si>
-  <si>
-    <t>PROTACI SACHET</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>PROTOFIX 40MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>PURGATON 20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>52.4700</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>SOFENACIN 10MG 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -875,9 +887,6 @@
     <t>ZINC OLIVE BABY CREAM 75 GM</t>
   </si>
   <si>
-    <t>69.0000</t>
-  </si>
-  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -1064,7 +1073,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 7:22 PM</t>
+    <t>Sunday, 17 August, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3322,13 +3331,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3355,7 +3364,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3365,14 +3374,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3381,14 +3390,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3398,14 +3407,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3414,14 +3423,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3431,14 +3440,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3454,7 +3463,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3464,11 +3473,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3497,14 +3506,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3520,7 +3529,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3530,14 +3539,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3546,14 +3555,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3570,7 +3579,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3586,7 +3595,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3600,10 +3609,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3612,14 +3621,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3629,14 +3638,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3652,7 +3661,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3669,7 +3678,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3685,7 +3694,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3695,14 +3704,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3711,31 +3720,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3751,7 +3760,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3784,21 +3793,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>47</v>
@@ -3810,7 +3819,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3823,15 +3832,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>47</v>
@@ -3843,31 +3852,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3883,7 +3892,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3893,14 +3902,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3909,14 +3918,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3933,7 +3942,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3949,7 +3958,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3966,7 +3975,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3982,7 +3991,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3992,14 +4001,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4008,14 +4017,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4025,14 +4034,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4041,7 +4050,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4058,11 +4067,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>47</v>
@@ -4081,7 +4090,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4098,7 +4107,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4114,7 +4123,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4131,7 +4140,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4147,7 +4156,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4157,11 +4166,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4173,14 +4182,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4190,14 +4199,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4213,7 +4222,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4223,14 +4232,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>47</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4239,14 +4248,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4256,11 +4265,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>47</v>
@@ -4272,14 +4281,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4289,11 +4298,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>47</v>
@@ -4305,14 +4314,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4322,14 +4331,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4338,14 +4347,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4355,14 +4364,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4371,14 +4380,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4388,14 +4397,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4404,14 +4413,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4421,14 +4430,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4437,14 +4446,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4454,11 +4463,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>47</v>
@@ -4470,14 +4479,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4487,11 +4496,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>47</v>
@@ -4503,14 +4512,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4520,11 +4529,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>47</v>
@@ -4536,14 +4545,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4553,11 +4562,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>47</v>
@@ -4569,14 +4578,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4586,14 +4595,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4602,14 +4611,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4619,11 +4628,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4635,14 +4644,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4652,11 +4661,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4668,14 +4677,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4685,11 +4694,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4701,14 +4710,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4718,11 +4727,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4734,14 +4743,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4751,11 +4760,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4767,14 +4776,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4791,7 +4800,7 @@
         <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4807,7 +4816,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>124</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4817,14 +4826,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4833,14 +4842,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4850,14 +4859,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4866,14 +4875,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4883,11 +4892,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>47</v>
@@ -4899,7 +4908,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4912,15 +4921,15 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>196</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>47</v>
@@ -4932,14 +4941,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4949,11 +4958,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>47</v>
@@ -4965,14 +4974,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4982,11 +4991,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>198</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>47</v>
@@ -5005,7 +5014,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5015,11 +5024,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>196</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>47</v>
@@ -5031,14 +5040,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5048,11 +5057,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>47</v>
@@ -5071,7 +5080,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>89</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5081,14 +5090,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5104,7 +5113,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5114,11 +5123,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5137,7 +5146,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5147,14 +5156,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5163,14 +5172,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5187,7 +5196,7 @@
         <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5213,14 +5222,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>315</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5246,14 +5255,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>124</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5262,14 +5271,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5279,14 +5288,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>47</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5295,14 +5304,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5312,11 +5321,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>195</v>
+        <v>322</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>196</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>47</v>
@@ -5328,14 +5337,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>322</v>
+        <v>22</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5345,14 +5354,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>302</v>
+        <v>198</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5361,14 +5370,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>118</v>
+        <v>325</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5378,14 +5387,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5401,7 +5410,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>327</v>
+        <v>118</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5411,11 +5420,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>47</v>
@@ -5427,14 +5436,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>235</v>
+        <v>330</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5444,11 +5453,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>47</v>
@@ -5467,7 +5476,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5477,14 +5486,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>209</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5493,14 +5502,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5510,14 +5519,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>195</v>
+        <v>322</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5526,14 +5535,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5543,11 +5552,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>198</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>47</v>
@@ -5566,7 +5575,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5576,14 +5585,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5592,7 +5601,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5609,14 +5618,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5625,14 +5634,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5642,11 +5651,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>133</v>
+        <v>305</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>47</v>
@@ -5665,7 +5674,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>22</v>
+        <v>343</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5675,7 +5684,7 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
@@ -5698,7 +5707,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5708,11 +5717,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>47</v>
@@ -5724,14 +5733,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5741,11 +5750,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>47</v>
@@ -5774,49 +5783,82 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>208</v>
+        <v>351</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>47</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>6544.29</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>351</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>352</v>
       </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
         <v>353</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>148</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>211</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>6666.29</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>354</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>355</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>356</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6445,10 +6487,15 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -1073,7 +1073,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 7:27 PM</t>
+    <t>Sunday, 17 August, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>ALFACALCIDOL 2MCG/ML ORAL DPS. 10 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -143,18 +158,12 @@
     <t>ATORSTAT 80MG 10 BISCORED TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>64.00</t>
   </si>
   <si>
     <t>64.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -326,6 +335,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DIPROSALIC LOTION 30 ML</t>
   </si>
   <si>
@@ -596,6 +614,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
@@ -809,18 +836,12 @@
     <t>TORSAMOLEX 20MG 20 TABS</t>
   </si>
   <si>
-    <t>62.00</t>
-  </si>
-  <si>
     <t>62.0000</t>
   </si>
   <si>
     <t>TRENTAL 400 SR 20 F.C. TAB</t>
   </si>
   <si>
-    <t>86.00</t>
-  </si>
-  <si>
     <t>TRITACE 1.25MG 14 TAB</t>
   </si>
   <si>
@@ -896,6 +917,9 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">بيبرونه ALGO صغيره </t>
   </si>
   <si>
@@ -1028,9 +1052,6 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>مبرد اظافر</t>
   </si>
   <si>
@@ -1073,7 +1094,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 7:39 PM</t>
+    <t>Sunday, 17 August, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1797,7 +1818,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1806,14 +1827,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1823,11 +1844,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1839,14 +1860,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1856,14 +1877,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1896,7 +1917,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1905,14 +1926,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1922,11 +1943,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1938,14 +1959,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1955,11 +1976,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1971,14 +1992,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1988,14 +2009,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2011,7 +2032,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2028,7 +2049,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2044,7 +2065,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2077,7 +2098,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2087,11 +2108,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2103,14 +2124,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2120,14 +2141,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2143,7 +2164,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2160,7 +2181,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2176,7 +2197,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2193,7 +2214,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2202,14 +2223,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2219,14 +2240,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>68</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2242,7 +2263,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2252,11 +2273,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2268,14 +2289,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2285,11 +2306,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2308,7 +2329,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2325,7 +2346,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2341,7 +2362,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2358,7 +2379,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2374,7 +2395,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2391,7 +2412,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2407,7 +2428,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2417,14 +2438,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2433,14 +2454,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2450,7 +2471,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2473,7 +2494,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2483,14 +2504,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2506,7 +2527,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2516,14 +2537,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2539,7 +2560,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2556,7 +2577,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2572,7 +2593,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2589,7 +2610,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2605,7 +2626,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2615,14 +2636,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2631,14 +2652,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2648,14 +2669,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2671,7 +2692,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2688,7 +2709,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2704,7 +2725,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2714,14 +2735,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2730,14 +2751,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2747,14 +2768,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2770,7 +2791,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2780,14 +2801,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2796,14 +2817,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2813,14 +2834,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2829,14 +2850,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2846,14 +2867,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2886,7 +2907,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2912,14 +2933,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>47</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2928,14 +2949,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2945,14 +2966,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2961,14 +2982,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2978,14 +2999,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3001,7 +3022,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3011,14 +3032,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3027,14 +3048,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3044,14 +3065,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3060,14 +3081,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3077,14 +3098,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3100,7 +3121,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3117,7 +3138,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3133,7 +3154,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3150,7 +3171,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3166,24 +3187,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3192,14 +3213,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3209,14 +3230,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3225,20 +3246,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3249,7 +3270,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3265,7 +3286,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3282,7 +3303,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3298,7 +3319,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3308,14 +3329,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>162</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3331,13 +3352,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3348,7 +3369,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3364,7 +3385,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3374,14 +3395,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>168</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>47</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3397,24 +3418,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3423,14 +3444,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3440,14 +3461,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3456,14 +3477,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3473,11 +3494,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3489,14 +3510,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3506,14 +3527,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3522,14 +3543,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3539,14 +3560,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3555,14 +3576,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3572,11 +3593,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3588,14 +3609,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3605,14 +3626,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>47</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3621,14 +3642,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3642,7 +3663,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3654,14 +3675,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3671,14 +3692,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3687,14 +3708,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3704,14 +3725,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3727,7 +3748,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3737,14 +3758,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3753,31 +3774,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>47</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3786,31 +3807,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3819,14 +3840,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3836,14 +3857,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3852,31 +3873,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3885,31 +3906,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3918,14 +3939,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3935,14 +3956,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3958,13 +3979,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3972,10 +3993,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3984,14 +4005,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4001,14 +4022,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4017,14 +4038,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4034,14 +4055,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4050,14 +4071,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4067,14 +4088,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4083,14 +4104,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4100,14 +4121,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4116,14 +4137,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4133,14 +4154,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4149,14 +4170,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4166,14 +4187,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4189,7 +4210,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4199,14 +4220,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4215,14 +4236,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4232,14 +4253,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>179</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4248,14 +4269,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4265,14 +4286,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4281,14 +4302,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4298,14 +4319,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4321,7 +4342,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4338,7 +4359,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>47</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4354,7 +4375,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4364,14 +4385,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4380,14 +4401,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4397,14 +4418,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4420,7 +4441,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4437,7 +4458,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4453,7 +4474,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4463,14 +4484,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4479,7 +4500,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4496,14 +4517,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4512,14 +4533,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4529,14 +4550,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4545,14 +4566,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4562,14 +4583,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4585,7 +4606,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4602,7 +4623,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4618,7 +4639,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4632,10 +4653,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4644,14 +4665,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4661,14 +4682,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4677,14 +4698,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4694,14 +4715,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>109</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4717,7 +4738,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4727,11 +4748,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>23</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4743,7 +4764,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4760,11 +4781,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>19</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4776,14 +4797,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4793,11 +4814,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4809,14 +4830,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>58</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4826,14 +4847,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4842,14 +4863,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4859,14 +4880,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4875,14 +4896,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4892,14 +4913,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4908,14 +4929,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>124</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4925,14 +4946,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>182</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4941,31 +4962,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4974,31 +4995,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5007,31 +5028,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>188</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5040,31 +5061,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5073,31 +5094,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5106,20 +5127,20 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5127,10 +5148,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5139,31 +5160,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5172,31 +5193,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>92</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5205,31 +5226,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>124</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5238,31 +5259,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>318</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5271,31 +5292,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5311,13 +5332,13 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
@@ -5325,10 +5346,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>47</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5337,7 +5358,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5350,18 +5371,18 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>199</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>47</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5370,31 +5391,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>22</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5403,31 +5424,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5436,31 +5457,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>330</v>
+        <v>27</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5469,31 +5490,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>238</v>
+        <v>333</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5509,24 +5530,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5535,31 +5556,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>199</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5568,31 +5589,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5601,31 +5622,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>333</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5634,31 +5655,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5667,31 +5688,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>343</v>
+        <v>27</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>133</v>
+        <v>346</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>344</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5700,7 +5721,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5713,18 +5734,18 @@
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5740,24 +5761,24 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>336</v>
+        <v>22</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5779,18 +5800,18 @@
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>351</v>
+        <v>139</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5806,59 +5827,158 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>353</v>
+        <v>27</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>211</v>
+        <v>353</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>212</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>6666.29</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>354</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>355</v>
       </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>344</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>154</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>313</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
         <v>356</v>
       </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>357</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>154</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>358</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>359</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>360</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>154</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>220</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>6835.29</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>361</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>362</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>363</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6492,10 +6612,25 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -242,6 +242,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -287,627 +296,639 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>DEXATOBRIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DIPROSALIC LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HALONACE 5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTASE 750MG  DROPS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>LAMICTAL 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>143.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LIT UP SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PENCILONG VIAL</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>PRONTO PLUS 20 TAB.</t>
+  </si>
+  <si>
+    <t>PROTACI SACHET</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>52.4700</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>STRONGVILLE MEN HAIR SHAMPOO &amp; CONDITIONER 120 ML</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>TEBOFORTIN FORTE 80MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>54.4500</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>TRITACE 1.25MG 14 TAB</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>TRYPSALIN PLUS 30 TABS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8389:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>ZINC OLIVE BABY CREAM 75 GM</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>DEXATOBRIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>DIPROSALIC LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>31.5000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>GRODESIRE SYRUP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>HALONACE 5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTASE 750MG  DROPS</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>LAMICTAL 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>143.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LIT UP SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>15.3600</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PAROFEN 30 OBLONG TAB.</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>PENCILONG VIAL</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>PRONTO PLUS 20 TAB.</t>
-  </si>
-  <si>
-    <t>PROTACI SACHET</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>PROTOFIX 40MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>PURGATON 20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>52.4700</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>SOFENACIN 10MG 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>STRONGVILLE MEN HAIR SHAMPOO &amp; CONDITIONER 120 ML</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>195.0000</t>
-  </si>
-  <si>
-    <t>TEBOFORTIN FORTE 80MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>54.4500</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>222.00</t>
-  </si>
-  <si>
-    <t>222.0000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>TORSAMOLEX 20MG 20 TABS</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>TRENTAL 400 SR 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>TRITACE 1.25MG 14 TAB</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>TRYPSALIN PLUS 30 TABS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>57.7500</t>
-  </si>
-  <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8389:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>ZINC OLIVE BABY CREAM 75 GM</t>
-  </si>
-  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -950,9 +971,6 @@
     <t>39:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -980,9 +998,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1019,9 +1034,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -1094,7 +1106,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 7:48 PM</t>
+    <t>Sunday, 17 August, 2025 7:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2362,7 +2374,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2379,7 +2391,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2395,7 +2407,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2428,7 +2440,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2445,7 +2457,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2461,7 +2473,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2471,14 +2483,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2487,14 +2499,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2504,7 +2516,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2527,7 +2539,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2537,14 +2549,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2560,7 +2572,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2570,14 +2582,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2610,7 +2622,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2643,7 +2655,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2659,7 +2671,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2669,14 +2681,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2685,14 +2697,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2725,7 +2737,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2742,7 +2754,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2758,7 +2770,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2775,7 +2787,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2791,7 +2803,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2801,14 +2813,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2817,14 +2829,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2834,14 +2846,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2850,14 +2862,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2867,14 +2879,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2890,7 +2902,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2900,14 +2912,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2916,14 +2928,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2933,14 +2945,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>119</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2956,7 +2968,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2966,14 +2978,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2982,14 +2994,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2999,11 +3011,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -3015,14 +3027,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3032,14 +3044,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3048,14 +3060,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3065,14 +3077,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3081,14 +3093,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3098,14 +3110,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3114,14 +3126,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3131,14 +3143,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3147,14 +3159,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3164,14 +3176,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3180,14 +3192,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3197,11 +3209,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3230,14 +3242,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3246,31 +3258,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3279,7 +3291,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3292,18 +3304,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3312,14 +3324,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3329,11 +3341,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -3345,7 +3357,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3362,14 +3374,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3378,7 +3390,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3395,14 +3407,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3411,31 +3423,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3444,28 +3456,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3477,14 +3489,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3494,14 +3506,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3517,7 +3529,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3527,14 +3539,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3543,14 +3555,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3560,14 +3572,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3576,14 +3588,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3593,7 +3605,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3616,7 +3628,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3626,14 +3638,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3642,14 +3654,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3659,14 +3671,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3675,14 +3687,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3699,7 +3711,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3715,7 +3727,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3729,10 +3741,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3741,14 +3753,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3758,11 +3770,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3774,14 +3786,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3791,14 +3803,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3814,13 +3826,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3831,7 +3843,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3847,7 +3859,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3857,14 +3869,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3873,31 +3885,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3906,31 +3918,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3946,21 +3958,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3972,28 +3984,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -4005,14 +4017,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4022,14 +4034,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4038,20 +4050,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -4059,7 +4071,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -4071,14 +4083,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4088,11 +4100,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4104,14 +4116,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4144,7 +4156,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4154,11 +4166,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4170,14 +4182,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4187,11 +4199,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -4203,14 +4215,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4220,14 +4232,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4236,14 +4248,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4253,14 +4265,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4293,7 +4305,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4309,7 +4321,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4319,14 +4331,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4335,14 +4347,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4352,14 +4364,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4385,14 +4397,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4401,14 +4413,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4418,14 +4430,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4441,7 +4453,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4451,11 +4463,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4467,7 +4479,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4484,14 +4496,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4507,7 +4519,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4540,7 +4552,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4557,7 +4569,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4573,7 +4585,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4583,11 +4595,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4599,14 +4611,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4616,14 +4628,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4632,14 +4644,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4649,11 +4661,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>84</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4672,7 +4684,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4705,7 +4717,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4715,11 +4727,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4731,7 +4743,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4748,14 +4760,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>113</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4764,14 +4776,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4781,14 +4793,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4797,14 +4809,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4814,11 +4826,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4837,7 +4849,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4870,7 +4882,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4880,11 +4892,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4896,14 +4908,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4913,11 +4925,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4929,14 +4941,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4946,14 +4958,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>19</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4962,14 +4974,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4979,14 +4991,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4995,14 +5007,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>92</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5012,14 +5024,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5028,14 +5040,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5045,14 +5057,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5061,31 +5073,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>119</v>
+        <v>305</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5094,28 +5106,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>25</v>
@@ -5127,31 +5139,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5160,7 +5172,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5173,15 +5185,15 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>25</v>
@@ -5193,28 +5205,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5226,31 +5238,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>312</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5259,31 +5271,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>305</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5292,31 +5304,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5325,7 +5337,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5338,18 +5350,18 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>130</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5358,31 +5370,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>326</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5404,18 +5416,18 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>328</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5431,24 +5443,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>25</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5457,31 +5469,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>207</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>208</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>25</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5490,31 +5502,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>333</v>
+        <v>25</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5523,28 +5535,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>335</v>
+        <v>213</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>336</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>25</v>
@@ -5569,18 +5581,18 @@
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5596,13 +5608,13 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>247</v>
+        <v>95</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
@@ -5610,7 +5622,7 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>25</v>
@@ -5622,31 +5634,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>22</v>
+        <v>342</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>221</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5662,21 +5674,21 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>344</v>
+        <v>253</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>207</v>
+        <v>344</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>25</v>
@@ -5688,31 +5700,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5728,24 +5740,24 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>22</v>
+        <v>348</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>341</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5754,28 +5766,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>323</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>25</v>
@@ -5787,31 +5799,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5827,21 +5839,21 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>353</v>
+        <v>197</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>354</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>25</v>
@@ -5853,28 +5865,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>313</v>
+        <v>141</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>25</v>
@@ -5893,21 +5905,21 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>357</v>
+        <v>27</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>25</v>
@@ -5926,59 +5938,125 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>6835.29</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>360</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
         <v>361</v>
       </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>156</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
         <v>362</v>
       </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>363</v>
       </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>364</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>156</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>226</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>6898.29</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>365</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>366</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>367</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6627,10 +6705,20 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -332,219 +341,222 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXATOBRIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DIPROSALIC LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HALONACE 5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTASE 750MG  DROPS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>LAMICTAL 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>143.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>5:2</t>
   </si>
   <si>
-    <t>DEXATOBRIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>DIPROSALIC LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>31.5000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>GRODESIRE SYRUP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>HALONACE 5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTASE 750MG  DROPS</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>LAMICTAL 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>143.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -563,9 +575,6 @@
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -656,6 +665,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -902,6 +917,9 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -1010,15 +1028,15 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>شامبو جونسون 100 مل</t>
   </si>
   <si>
@@ -1106,7 +1124,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 7:58 PM</t>
+    <t>Sunday, 17 August, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2582,14 +2600,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2605,7 +2623,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2615,14 +2633,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2655,7 +2673,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2688,7 +2706,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2704,7 +2722,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2714,14 +2732,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2747,14 +2765,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2780,14 +2798,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2813,14 +2831,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2853,7 +2871,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2879,14 +2897,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2895,14 +2913,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2912,14 +2930,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2945,14 +2963,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2961,14 +2979,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2978,14 +2996,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3034,7 +3052,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3044,11 +3062,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -3060,14 +3078,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3077,14 +3095,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3114,10 +3132,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3126,14 +3144,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3143,14 +3161,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3159,14 +3177,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3176,14 +3194,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3192,14 +3210,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3209,14 +3227,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3225,14 +3243,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3242,11 +3260,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3258,14 +3276,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3275,14 +3293,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3291,20 +3309,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3315,7 +3333,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3337,18 +3355,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3357,14 +3375,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3374,11 +3392,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -3390,7 +3408,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3407,14 +3425,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3423,7 +3441,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3440,14 +3458,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3456,31 +3474,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3496,13 +3514,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3529,7 +3547,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3539,14 +3557,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3555,14 +3573,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3572,14 +3590,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3605,14 +3623,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3638,11 +3656,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3654,14 +3672,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3671,14 +3689,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3704,14 +3722,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3720,14 +3738,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3744,7 +3762,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3760,7 +3778,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3793,7 +3811,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3807,10 +3825,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3819,14 +3837,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3836,14 +3854,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3859,7 +3877,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3876,7 +3894,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>188</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3892,13 +3910,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3909,7 +3927,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3925,21 +3943,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3951,31 +3969,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3991,13 +4009,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -4024,7 +4042,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4034,11 +4052,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -4050,28 +4068,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -4083,14 +4101,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4100,14 +4118,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4123,21 +4141,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -4149,14 +4167,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4166,11 +4184,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4182,14 +4200,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4199,11 +4217,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -4215,14 +4233,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4232,11 +4250,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4248,14 +4266,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4265,11 +4283,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4288,7 +4306,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4298,14 +4316,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4314,14 +4332,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4331,14 +4349,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4347,7 +4365,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4364,14 +4382,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4380,14 +4398,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4397,14 +4415,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4413,14 +4431,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4430,14 +4448,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4446,14 +4464,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4463,14 +4481,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4479,14 +4497,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4496,14 +4514,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4512,14 +4530,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4562,14 +4580,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4578,14 +4596,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4595,11 +4613,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4611,14 +4629,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4628,14 +4646,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4644,14 +4662,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4661,11 +4679,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>84</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4677,14 +4695,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4694,14 +4712,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4710,14 +4728,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4727,11 +4745,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>84</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4743,14 +4761,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4760,11 +4778,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4776,14 +4794,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4793,7 +4811,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4826,14 +4844,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4842,14 +4860,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4859,14 +4877,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>116</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4875,14 +4893,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4892,11 +4910,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>23</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4908,14 +4926,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4925,11 +4943,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4941,14 +4959,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4958,7 +4976,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4981,7 +4999,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5014,7 +5032,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5024,14 +5042,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>19</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5040,14 +5058,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5057,14 +5075,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5073,14 +5091,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>305</v>
+        <v>31</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5090,14 +5108,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5106,14 +5124,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>132</v>
+        <v>304</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5123,14 +5141,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5139,31 +5157,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5179,21 +5197,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>311</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>25</v>
@@ -5205,24 +5223,24 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>194</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5245,24 +5263,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5271,28 +5289,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>25</v>
@@ -5304,31 +5322,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>197</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5344,24 +5362,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>216</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5370,31 +5388,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5403,31 +5421,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>328</v>
+        <v>200</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>132</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5436,7 +5454,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5449,18 +5467,18 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>331</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5469,31 +5487,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>330</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5502,31 +5520,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>333</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>25</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5535,31 +5553,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>214</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>25</v>
+        <v>337</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5568,31 +5586,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>338</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5608,13 +5626,13 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
@@ -5622,7 +5640,7 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>25</v>
@@ -5634,28 +5652,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>342</v>
+        <v>27</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>335</v>
+        <v>216</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>25</v>
@@ -5674,24 +5692,24 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>344</v>
+        <v>200</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5700,31 +5718,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5746,15 +5764,15 @@
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>213</v>
+        <v>340</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>214</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>25</v>
@@ -5773,13 +5791,13 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
@@ -5787,7 +5805,7 @@
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>209</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>25</v>
@@ -5799,7 +5817,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5812,18 +5830,18 @@
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5832,28 +5850,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>22</v>
+        <v>354</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>25</v>
@@ -5865,28 +5883,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>354</v>
+        <v>27</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>141</v>
+        <v>356</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>355</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>25</v>
@@ -5898,31 +5916,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5931,28 +5949,28 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>348</v>
+        <v>22</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>25</v>
@@ -5964,28 +5982,28 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>362</v>
+        <v>145</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>25</v>
@@ -5997,66 +6015,165 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>364</v>
+        <v>27</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>226</v>
+        <v>363</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>227</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>6898.29</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
         <v>365</v>
       </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>354</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>160</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>200</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
         <v>366</v>
       </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
         <v>367</v>
       </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>160</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>368</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>369</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>370</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>160</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>231</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="P140" s="13">
+        <v>7025.5200000000004</v>
+      </c>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="14">
+        <v>371</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c t="s" r="G141" s="15">
+        <v>372</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c t="s" r="K141" s="17">
+        <v>373</v>
+      </c>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="677">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6715,10 +6832,25 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="K141:Q141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -1124,7 +1124,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 8:04 PM</t>
+    <t>Sunday, 17 August, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-17_00-00.xlsx
+++ b/DaySale_2025-08-17_00-00.xlsx
@@ -428,6 +428,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ERALONER 25 MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -443,12 +452,18 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>3:5</t>
+    <t>3:4</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
+    <t>11.7600</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -560,6 +575,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00<